--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_2_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2517368.146986227</v>
+        <v>-2517811.516165046</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272900.9826262289</v>
+        <v>272900.9826262317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>199.2770567284654</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.745474244268926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58.39844849405456</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>115.8198477585827</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12.59665167322041</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>57.26528382108479</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>85.58501561024197</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>309.9606192840122</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>154.9444717141585</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>83.04898302511423</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>82.43216989169808</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>109.7129576363817</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>5.702444791169589</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>236.6845940680869</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1218,16 +1218,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>39.11655016295389</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1275,10 +1275,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>118.9183459119654</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12.59665167322035</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>57.0380364259622</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.1936540692125</v>
+        <v>297.1936540692124</v>
       </c>
       <c r="C11" t="n">
-        <v>285.2049710268943</v>
+        <v>285.2049710268941</v>
       </c>
       <c r="D11" t="n">
-        <v>81.93664691146455</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>164.5397232220708</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>319.0169197254514</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>236.4138434148439</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.06948942449552</v>
+        <v>92.06948942449516</v>
       </c>
       <c r="T11" t="n">
-        <v>129.1333413673366</v>
+        <v>129.1333413673364</v>
       </c>
       <c r="U11" t="n">
         <v>159.4257067174173</v>
       </c>
       <c r="V11" t="n">
-        <v>240.7000313093916</v>
+        <v>240.7000313093914</v>
       </c>
       <c r="W11" t="n">
-        <v>266.0001307873486</v>
+        <v>266.0001307873483</v>
       </c>
       <c r="X11" t="n">
-        <v>285.3003890200952</v>
+        <v>285.3003890200949</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.6969868162939</v>
+        <v>296.6969868162937</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H12" t="n">
-        <v>59.22354509959347</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I12" t="n">
-        <v>67.39308974070319</v>
+        <v>27.76381592597418</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.61120061478785</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>74.31366526496983</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.78277168640658</v>
+        <v>54.78277168640639</v>
       </c>
       <c r="S13" t="n">
-        <v>118.533628727594</v>
+        <v>118.5336287275939</v>
       </c>
       <c r="T13" t="n">
-        <v>137.905942337041</v>
+        <v>137.9059423370408</v>
       </c>
       <c r="U13" t="n">
-        <v>191.4084814715884</v>
+        <v>191.4084814715882</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2185013435352</v>
+        <v>165.218501343535</v>
       </c>
       <c r="W13" t="n">
-        <v>190.3853874141485</v>
+        <v>190.3853874141483</v>
       </c>
       <c r="X13" t="n">
-        <v>136.0304894099515</v>
+        <v>136.0304894099514</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.20289251583407</v>
+        <v>126.9053571660191</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>285.2049710268941</v>
       </c>
       <c r="D14" t="n">
-        <v>276.1862750714221</v>
+        <v>86.99922745884976</v>
       </c>
       <c r="E14" t="n">
-        <v>47.22679580227435</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>236.4138434148439</v>
       </c>
       <c r="I14" t="n">
-        <v>77.54049576322078</v>
+        <v>77.54049576322073</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.06948942449522</v>
+        <v>92.06948942449552</v>
       </c>
       <c r="T14" t="n">
-        <v>129.1333413673365</v>
+        <v>129.1333413673364</v>
       </c>
       <c r="U14" t="n">
-        <v>159.4257067174177</v>
+        <v>159.4257067174173</v>
       </c>
       <c r="V14" t="n">
-        <v>240.7000313093915</v>
+        <v>240.7000313093914</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0001307873484</v>
+        <v>266.0001307873483</v>
       </c>
       <c r="X14" t="n">
-        <v>285.300389020095</v>
+        <v>285.3003890200949</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.6969868162938</v>
+        <v>296.6969868162937</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4323455528363</v>
+        <v>87.80307173810725</v>
       </c>
       <c r="H15" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I15" t="n">
-        <v>27.76381592597771</v>
+        <v>67.39308974070319</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.61120061478707</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.63172418688828</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>57.57947404266773</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.78277168640642</v>
+        <v>54.78277168640639</v>
       </c>
       <c r="S16" t="n">
         <v>118.5336287275939</v>
       </c>
       <c r="T16" t="n">
-        <v>137.905942337041</v>
+        <v>137.9059423370408</v>
       </c>
       <c r="U16" t="n">
         <v>191.4084814715882</v>
@@ -1831,7 +1831,7 @@
         <v>136.0304894099514</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.9053571660191</v>
+        <v>56.30535955125096</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.3114801553022</v>
+        <v>222.311480155302</v>
       </c>
       <c r="C17" t="n">
-        <v>210.3227971129839</v>
+        <v>210.3227971129837</v>
       </c>
       <c r="D17" t="n">
-        <v>201.3041011575119</v>
+        <v>201.3041011575117</v>
       </c>
       <c r="E17" t="n">
-        <v>223.0462387274175</v>
+        <v>223.0462387274173</v>
       </c>
       <c r="F17" t="n">
-        <v>242.2180548153946</v>
+        <v>242.2180548153944</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1347458115411</v>
+        <v>244.1347458115409</v>
       </c>
       <c r="H17" t="n">
-        <v>161.5316695009338</v>
+        <v>161.5316695009321</v>
       </c>
       <c r="I17" t="n">
-        <v>2.658321849310624</v>
+        <v>2.658321849310425</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.18731551058504</v>
+        <v>17.18731551058485</v>
       </c>
       <c r="T17" t="n">
-        <v>54.25116745342642</v>
+        <v>54.25116745342613</v>
       </c>
       <c r="U17" t="n">
         <v>84.54353280350719</v>
       </c>
       <c r="V17" t="n">
-        <v>165.8178573954813</v>
+        <v>165.8178573954811</v>
       </c>
       <c r="W17" t="n">
-        <v>191.1179568734382</v>
+        <v>191.117956873438</v>
       </c>
       <c r="X17" t="n">
-        <v>210.4182151061848</v>
+        <v>210.4182151061846</v>
       </c>
       <c r="Y17" t="n">
-        <v>221.8148129023836</v>
+        <v>221.8148129023834</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>87.80307173811079</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H18" t="n">
         <v>98.85281891431895</v>
       </c>
       <c r="I18" t="n">
-        <v>67.39308974070319</v>
+        <v>27.76381592597418</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.92819102999928</v>
+        <v>13.92819102999908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1281858753997653</v>
+        <v>0.1281858753995664</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.65145481368371</v>
+        <v>43.65145481368351</v>
       </c>
       <c r="T19" t="n">
-        <v>63.0237684231308</v>
+        <v>63.0237684231306</v>
       </c>
       <c r="U19" t="n">
-        <v>116.5263075576781</v>
+        <v>116.5263075576779</v>
       </c>
       <c r="V19" t="n">
-        <v>90.33632742962487</v>
+        <v>90.33632742962467</v>
       </c>
       <c r="W19" t="n">
-        <v>115.5032135002381</v>
+        <v>115.5032135002379</v>
       </c>
       <c r="X19" t="n">
-        <v>61.14831549604125</v>
+        <v>61.14831549604105</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.02318325210894</v>
+        <v>52.02318325210874</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>222.3114801553022</v>
+        <v>222.311480155302</v>
       </c>
       <c r="C20" t="n">
-        <v>210.3227971129839</v>
+        <v>210.3227971129837</v>
       </c>
       <c r="D20" t="n">
-        <v>201.3041011575119</v>
+        <v>201.3041011575117</v>
       </c>
       <c r="E20" t="n">
-        <v>223.0462387274175</v>
+        <v>223.0462387274173</v>
       </c>
       <c r="F20" t="n">
-        <v>242.2180548153946</v>
+        <v>242.2180548153944</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1347458115411</v>
+        <v>244.1347458115409</v>
       </c>
       <c r="H20" t="n">
-        <v>161.5316695009338</v>
+        <v>161.5316695009336</v>
       </c>
       <c r="I20" t="n">
-        <v>2.658321849310624</v>
+        <v>2.658321849310425</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.18731551058505</v>
+        <v>17.18731551058484</v>
       </c>
       <c r="T20" t="n">
-        <v>54.25116745342632</v>
+        <v>54.25116745342597</v>
       </c>
       <c r="U20" t="n">
         <v>84.54353280350674</v>
       </c>
       <c r="V20" t="n">
-        <v>165.8178573954813</v>
+        <v>165.8178573954811</v>
       </c>
       <c r="W20" t="n">
-        <v>191.1179568734382</v>
+        <v>191.117956873438</v>
       </c>
       <c r="X20" t="n">
-        <v>210.4182151061848</v>
+        <v>210.4182151061846</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.8148129023836</v>
+        <v>221.8148129023834</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>97.8209768249645</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>98.85281891431895</v>
       </c>
       <c r="I21" t="n">
-        <v>67.39308974070319</v>
+        <v>27.76381592597462</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.92819102999928</v>
+        <v>13.92819102999908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1281858753997653</v>
+        <v>0.1281858753995664</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.65145481368371</v>
+        <v>43.65145481368351</v>
       </c>
       <c r="T22" t="n">
-        <v>63.0237684231308</v>
+        <v>63.0237684231306</v>
       </c>
       <c r="U22" t="n">
-        <v>116.5263075576781</v>
+        <v>116.5263075576779</v>
       </c>
       <c r="V22" t="n">
-        <v>90.33632742962487</v>
+        <v>90.33632742962467</v>
       </c>
       <c r="W22" t="n">
-        <v>115.5032135002381</v>
+        <v>115.5032135002379</v>
       </c>
       <c r="X22" t="n">
-        <v>61.14831549604125</v>
+        <v>61.14831549604105</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.02318325210894</v>
+        <v>52.02318325210874</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>222.3114801553022</v>
+        <v>222.311480155302</v>
       </c>
       <c r="C23" t="n">
-        <v>210.3227971129839</v>
+        <v>210.3227971129837</v>
       </c>
       <c r="D23" t="n">
-        <v>201.3041011575119</v>
+        <v>201.3041011575117</v>
       </c>
       <c r="E23" t="n">
-        <v>223.0462387274175</v>
+        <v>223.0462387274173</v>
       </c>
       <c r="F23" t="n">
-        <v>242.2180548153946</v>
+        <v>242.2180548153944</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1347458115411</v>
+        <v>244.1347458115409</v>
       </c>
       <c r="H23" t="n">
-        <v>161.5316695009338</v>
+        <v>161.5316695009336</v>
       </c>
       <c r="I23" t="n">
-        <v>2.658321849310624</v>
+        <v>2.658321849310419</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.18731551058504</v>
+        <v>17.18731551058484</v>
       </c>
       <c r="T23" t="n">
-        <v>54.25116745342642</v>
+        <v>54.25116745342613</v>
       </c>
       <c r="U23" t="n">
-        <v>84.5435328035063</v>
+        <v>84.54353280350688</v>
       </c>
       <c r="V23" t="n">
-        <v>165.8178573954813</v>
+        <v>165.8178573954811</v>
       </c>
       <c r="W23" t="n">
-        <v>191.1179568734382</v>
+        <v>191.117956873438</v>
       </c>
       <c r="X23" t="n">
-        <v>210.4182151061848</v>
+        <v>210.4182151061846</v>
       </c>
       <c r="Y23" t="n">
-        <v>221.8148129023836</v>
+        <v>221.8148129023834</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>87.80307173810992</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H24" t="n">
-        <v>98.85281891431895</v>
+        <v>59.22354509959037</v>
       </c>
       <c r="I24" t="n">
         <v>67.39308974070319</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.92819102999928</v>
+        <v>13.92819102999908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1281858753997653</v>
+        <v>0.1281858753995664</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.65145481368371</v>
+        <v>43.65145481368351</v>
       </c>
       <c r="T25" t="n">
-        <v>63.0237684231308</v>
+        <v>63.0237684231306</v>
       </c>
       <c r="U25" t="n">
-        <v>116.5263075576781</v>
+        <v>116.5263075576779</v>
       </c>
       <c r="V25" t="n">
-        <v>90.33632742962487</v>
+        <v>90.33632742962467</v>
       </c>
       <c r="W25" t="n">
-        <v>115.5032135002381</v>
+        <v>115.5032135002379</v>
       </c>
       <c r="X25" t="n">
-        <v>61.14831549604125</v>
+        <v>61.14831549604105</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.02318325210894</v>
+        <v>52.02318325210874</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>264.1930005258181</v>
+        <v>264.193000525818</v>
       </c>
       <c r="C26" t="n">
         <v>252.2043174834998</v>
@@ -2567,13 +2567,13 @@
         <v>284.0995751859105</v>
       </c>
       <c r="G26" t="n">
-        <v>286.016266182057</v>
+        <v>286.0162661820569</v>
       </c>
       <c r="H26" t="n">
-        <v>203.4131898714497</v>
+        <v>203.4131898714496</v>
       </c>
       <c r="I26" t="n">
-        <v>44.53984221982748</v>
+        <v>44.53984221982647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.06883588110092</v>
+        <v>59.06883588110115</v>
       </c>
       <c r="T26" t="n">
-        <v>96.13268782394219</v>
+        <v>96.13268782394216</v>
       </c>
       <c r="U26" t="n">
-        <v>126.4250531740229</v>
+        <v>126.4250531740224</v>
       </c>
       <c r="V26" t="n">
         <v>207.6993777659972</v>
@@ -2621,7 +2621,7 @@
         <v>252.2997354767007</v>
       </c>
       <c r="Y26" t="n">
-        <v>263.6963332728995</v>
+        <v>263.6963332728994</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2649,7 @@
         <v>127.4323455528363</v>
       </c>
       <c r="H27" t="n">
-        <v>98.85281891431998</v>
+        <v>98.85281891431895</v>
       </c>
       <c r="I27" t="n">
         <v>67.39308974070319</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.80971140051516</v>
+        <v>55.80971140051513</v>
       </c>
       <c r="C28" t="n">
-        <v>42.00970624591564</v>
+        <v>42.00970624591561</v>
       </c>
       <c r="D28" t="n">
-        <v>25.63107064349403</v>
+        <v>25.631070643494</v>
       </c>
       <c r="E28" t="n">
-        <v>24.57882049927348</v>
+        <v>24.57882049927345</v>
       </c>
       <c r="F28" t="n">
-        <v>25.04574482745979</v>
+        <v>25.04574482745976</v>
       </c>
       <c r="G28" t="n">
-        <v>41.3130117215754</v>
+        <v>41.31301172157537</v>
       </c>
       <c r="H28" t="n">
-        <v>31.80270390756063</v>
+        <v>31.8027039075606</v>
       </c>
       <c r="I28" t="n">
-        <v>16.62729475192559</v>
+        <v>16.62729475192556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.78211814301214</v>
+        <v>21.78211814301211</v>
       </c>
       <c r="S28" t="n">
-        <v>85.53297518419959</v>
+        <v>85.53297518419956</v>
       </c>
       <c r="T28" t="n">
-        <v>104.9052887936467</v>
+        <v>104.9052887936466</v>
       </c>
       <c r="U28" t="n">
-        <v>158.407827928194</v>
+        <v>158.4078279281939</v>
       </c>
       <c r="V28" t="n">
-        <v>132.2178478001408</v>
+        <v>132.2178478001407</v>
       </c>
       <c r="W28" t="n">
         <v>157.384733870754</v>
@@ -2779,7 +2779,7 @@
         <v>103.0298358665571</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.90470362262481</v>
+        <v>93.90470362262478</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.1930005258182</v>
+        <v>264.193000525818</v>
       </c>
       <c r="C29" t="n">
-        <v>252.2043174834999</v>
+        <v>252.2043174834998</v>
       </c>
       <c r="D29" t="n">
-        <v>243.1856215280279</v>
+        <v>243.1856215280278</v>
       </c>
       <c r="E29" t="n">
-        <v>264.9277590979335</v>
+        <v>264.9277590979333</v>
       </c>
       <c r="F29" t="n">
-        <v>284.0995751859106</v>
+        <v>284.0995751859105</v>
       </c>
       <c r="G29" t="n">
-        <v>286.0162661820571</v>
+        <v>286.0162661820569</v>
       </c>
       <c r="H29" t="n">
-        <v>203.4131898714498</v>
+        <v>203.4131898714496</v>
       </c>
       <c r="I29" t="n">
-        <v>44.53984221982661</v>
+        <v>44.5398422198266</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.06883588110103</v>
+        <v>59.0688358811009</v>
       </c>
       <c r="T29" t="n">
-        <v>96.13268782394211</v>
+        <v>96.13268782394216</v>
       </c>
       <c r="U29" t="n">
-        <v>126.4250531740224</v>
+        <v>126.4250531740229</v>
       </c>
       <c r="V29" t="n">
-        <v>207.6993777659973</v>
+        <v>207.6993777659972</v>
       </c>
       <c r="W29" t="n">
-        <v>232.9994772439542</v>
+        <v>232.9994772439541</v>
       </c>
       <c r="X29" t="n">
-        <v>252.2997354767008</v>
+        <v>252.2997354767007</v>
       </c>
       <c r="Y29" t="n">
-        <v>263.6963332728996</v>
+        <v>263.6963332728994</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.80971140051527</v>
+        <v>55.80971140051513</v>
       </c>
       <c r="C31" t="n">
-        <v>42.00970624591575</v>
+        <v>42.00970624591561</v>
       </c>
       <c r="D31" t="n">
-        <v>25.63107064349414</v>
+        <v>25.631070643494</v>
       </c>
       <c r="E31" t="n">
-        <v>24.57882049927359</v>
+        <v>24.57882049927345</v>
       </c>
       <c r="F31" t="n">
-        <v>25.0457448274599</v>
+        <v>25.04574482745976</v>
       </c>
       <c r="G31" t="n">
-        <v>41.31301172157551</v>
+        <v>41.31301172157537</v>
       </c>
       <c r="H31" t="n">
-        <v>31.80270390756074</v>
+        <v>31.8027039075606</v>
       </c>
       <c r="I31" t="n">
-        <v>16.6272947519257</v>
+        <v>16.62729475192556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.78211814301226</v>
+        <v>21.78211814301211</v>
       </c>
       <c r="S31" t="n">
-        <v>85.5329751841997</v>
+        <v>85.53297518419956</v>
       </c>
       <c r="T31" t="n">
-        <v>104.9052887936468</v>
+        <v>104.9052887936466</v>
       </c>
       <c r="U31" t="n">
-        <v>158.4078279281941</v>
+        <v>158.4078279281939</v>
       </c>
       <c r="V31" t="n">
-        <v>132.2178478001409</v>
+        <v>132.2178478001407</v>
       </c>
       <c r="W31" t="n">
-        <v>157.3847338707541</v>
+        <v>157.384733870754</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0298358665572</v>
+        <v>103.0298358665571</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.90470362262492</v>
+        <v>93.90470362262478</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>252.5588719900324</v>
+        <v>252.5588719900322</v>
       </c>
       <c r="C32" t="n">
-        <v>240.5701889477142</v>
+        <v>240.570188947714</v>
       </c>
       <c r="D32" t="n">
-        <v>231.5514929922421</v>
+        <v>231.5514929922419</v>
       </c>
       <c r="E32" t="n">
-        <v>253.2936305621477</v>
+        <v>253.2936305621475</v>
       </c>
       <c r="F32" t="n">
-        <v>272.4654466501248</v>
+        <v>272.4654466501246</v>
       </c>
       <c r="G32" t="n">
-        <v>274.3821376462713</v>
+        <v>274.3821376462711</v>
       </c>
       <c r="H32" t="n">
-        <v>191.779061335664</v>
+        <v>191.7790613356638</v>
       </c>
       <c r="I32" t="n">
-        <v>32.90571368404085</v>
+        <v>32.90571368404065</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.43470734531527</v>
+        <v>47.43470734531508</v>
       </c>
       <c r="T32" t="n">
-        <v>84.49855928815654</v>
+        <v>84.49855928815634</v>
       </c>
       <c r="U32" t="n">
-        <v>114.7909246382372</v>
+        <v>114.7909246382377</v>
       </c>
       <c r="V32" t="n">
-        <v>196.0652492302115</v>
+        <v>196.0652492302114</v>
       </c>
       <c r="W32" t="n">
-        <v>221.3653487081685</v>
+        <v>221.3653487081683</v>
       </c>
       <c r="X32" t="n">
-        <v>240.6656069409151</v>
+        <v>240.6656069409149</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.0622047371138</v>
+        <v>252.0622047371136</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3120,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4323455528363</v>
+        <v>127.4323455528372</v>
       </c>
       <c r="H33" t="n">
         <v>98.85281891431895</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.17558286472951</v>
+        <v>44.17558286472931</v>
       </c>
       <c r="C34" t="n">
-        <v>30.37557771012999</v>
+        <v>30.37557771012979</v>
       </c>
       <c r="D34" t="n">
-        <v>13.99694210770838</v>
+        <v>13.99694210770818</v>
       </c>
       <c r="E34" t="n">
-        <v>12.94469196348783</v>
+        <v>12.94469196348763</v>
       </c>
       <c r="F34" t="n">
-        <v>13.41161629167414</v>
+        <v>13.41161629167394</v>
       </c>
       <c r="G34" t="n">
-        <v>29.67888318578975</v>
+        <v>29.67888318578955</v>
       </c>
       <c r="H34" t="n">
-        <v>20.16857537177498</v>
+        <v>20.16857537177478</v>
       </c>
       <c r="I34" t="n">
-        <v>4.993166216139939</v>
+        <v>4.99316621613974</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.14798960722649</v>
+        <v>10.14798960722629</v>
       </c>
       <c r="S34" t="n">
-        <v>73.89884664841394</v>
+        <v>73.89884664841374</v>
       </c>
       <c r="T34" t="n">
-        <v>93.27116025786101</v>
+        <v>93.27116025786081</v>
       </c>
       <c r="U34" t="n">
-        <v>146.7736993924083</v>
+        <v>146.7736993924081</v>
       </c>
       <c r="V34" t="n">
-        <v>120.5837192643551</v>
+        <v>120.5837192643549</v>
       </c>
       <c r="W34" t="n">
-        <v>145.7506053349684</v>
+        <v>145.7506053349682</v>
       </c>
       <c r="X34" t="n">
-        <v>91.39570733077147</v>
+        <v>91.39570733077127</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.27057508683916</v>
+        <v>82.27057508683896</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>212.9647487006324</v>
       </c>
       <c r="D35" t="n">
-        <v>203.9460527451603</v>
+        <v>203.9460527451604</v>
       </c>
       <c r="E35" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F35" t="n">
-        <v>244.860006403043</v>
+        <v>244.8600064030431</v>
       </c>
       <c r="G35" t="n">
         <v>246.7766973991895</v>
       </c>
       <c r="H35" t="n">
-        <v>164.1736210885822</v>
+        <v>164.1736210885823</v>
       </c>
       <c r="I35" t="n">
-        <v>5.300273436959031</v>
+        <v>5.30027343695906</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.82926709823345</v>
+        <v>19.8292670982333</v>
       </c>
       <c r="T35" t="n">
-        <v>56.8931190410747</v>
+        <v>56.89311904107476</v>
       </c>
       <c r="U35" t="n">
         <v>87.18548439115592</v>
       </c>
       <c r="V35" t="n">
-        <v>168.4598089831297</v>
+        <v>168.4598089831298</v>
       </c>
       <c r="W35" t="n">
-        <v>193.7599084610866</v>
+        <v>193.7599084610867</v>
       </c>
       <c r="X35" t="n">
         <v>213.0601666938333</v>
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4323455528363</v>
+        <v>127.4323455528373</v>
       </c>
       <c r="H36" t="n">
         <v>98.85281891431895</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764772</v>
       </c>
       <c r="C37" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048201</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.073442938707932</v>
+        <v>2.07344293870796</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133215</v>
       </c>
       <c r="T37" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077922</v>
       </c>
       <c r="U37" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V37" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727331</v>
       </c>
       <c r="W37" t="n">
-        <v>118.1451650878865</v>
+        <v>118.1451650878866</v>
       </c>
       <c r="X37" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368968</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975737</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3506,13 @@
         <v>212.9647487006324</v>
       </c>
       <c r="D38" t="n">
-        <v>203.9460527451603</v>
+        <v>203.9460527451604</v>
       </c>
       <c r="E38" t="n">
         <v>225.6881903150659</v>
       </c>
       <c r="F38" t="n">
-        <v>244.860006403043</v>
+        <v>244.8600064030431</v>
       </c>
       <c r="G38" t="n">
         <v>246.7766973991895</v>
@@ -3521,7 +3521,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I38" t="n">
-        <v>5.300273436959031</v>
+        <v>5.30027343695906</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.82926709823346</v>
+        <v>19.82926709823349</v>
       </c>
       <c r="T38" t="n">
-        <v>56.89311904107473</v>
+        <v>56.89311904107475</v>
       </c>
       <c r="U38" t="n">
         <v>87.18548439115548</v>
       </c>
       <c r="V38" t="n">
-        <v>168.4598089831297</v>
+        <v>168.4598089831298</v>
       </c>
       <c r="W38" t="n">
-        <v>193.7599084610866</v>
+        <v>193.7599084610867</v>
       </c>
       <c r="X38" t="n">
         <v>213.0601666938333</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764772</v>
       </c>
       <c r="C40" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048201</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.073442938707932</v>
+        <v>2.07344293870796</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133215</v>
       </c>
       <c r="T40" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077922</v>
       </c>
       <c r="U40" t="n">
         <v>119.1682591453265</v>
       </c>
       <c r="V40" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727331</v>
       </c>
       <c r="W40" t="n">
-        <v>118.1451650878865</v>
+        <v>118.1451650878866</v>
       </c>
       <c r="X40" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368968</v>
       </c>
       <c r="Y40" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975737</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3740,13 @@
         <v>224.9534317429506</v>
       </c>
       <c r="C41" t="n">
-        <v>212.9647487006324</v>
+        <v>212.9647487006323</v>
       </c>
       <c r="D41" t="n">
         <v>203.9460527451603</v>
       </c>
       <c r="E41" t="n">
-        <v>225.6881903150659</v>
+        <v>225.6881903150658</v>
       </c>
       <c r="F41" t="n">
         <v>244.860006403043</v>
@@ -3758,7 +3758,7 @@
         <v>164.1736210885822</v>
       </c>
       <c r="I41" t="n">
-        <v>5.300273436959031</v>
+        <v>5.300273436958997</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.82926709823374</v>
+        <v>19.82926709823419</v>
       </c>
       <c r="T41" t="n">
-        <v>56.89311904107473</v>
+        <v>56.8931190410747</v>
       </c>
       <c r="U41" t="n">
         <v>87.18548439115548</v>
@@ -3803,7 +3803,7 @@
         <v>193.7599084610866</v>
       </c>
       <c r="X41" t="n">
-        <v>213.0601666938333</v>
+        <v>213.0601666938332</v>
       </c>
       <c r="Y41" t="n">
         <v>224.456764490032</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.57014261764769</v>
+        <v>16.57014261764766</v>
       </c>
       <c r="C43" t="n">
-        <v>2.770137463048172</v>
+        <v>2.770137463048144</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.073442938707932</v>
+        <v>2.073442938707903</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.29340640133212</v>
+        <v>46.29340640133209</v>
       </c>
       <c r="T43" t="n">
-        <v>65.6657200107792</v>
+        <v>65.66572001077917</v>
       </c>
       <c r="U43" t="n">
-        <v>119.1682591453265</v>
+        <v>119.1682591453264</v>
       </c>
       <c r="V43" t="n">
-        <v>92.97827901727328</v>
+        <v>92.97827901727325</v>
       </c>
       <c r="W43" t="n">
         <v>118.1451650878865</v>
       </c>
       <c r="X43" t="n">
-        <v>63.79026708368966</v>
+        <v>63.79026708368963</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.66513483975734</v>
+        <v>54.66513483975731</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.82926709823345</v>
+        <v>19.82926709823374</v>
       </c>
       <c r="T44" t="n">
         <v>56.89311904107473</v>
       </c>
       <c r="U44" t="n">
-        <v>87.18548439115592</v>
+        <v>87.18548439115548</v>
       </c>
       <c r="V44" t="n">
         <v>168.4598089831297</v>
@@ -4068,10 +4068,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4323455528373</v>
+        <v>127.4323455528363</v>
       </c>
       <c r="H45" t="n">
-        <v>98.85281891431895</v>
+        <v>98.85281891432001</v>
       </c>
       <c r="I45" t="n">
         <v>67.39308974070319</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>433.4251476862657</v>
+        <v>1170.28682612936</v>
       </c>
       <c r="C2" t="n">
-        <v>433.4251476862657</v>
+        <v>1170.28682612936</v>
       </c>
       <c r="D2" t="n">
-        <v>60.60118291348931</v>
+        <v>797.462861356584</v>
       </c>
       <c r="E2" t="n">
-        <v>60.60118291348931</v>
+        <v>797.462861356584</v>
       </c>
       <c r="F2" t="n">
-        <v>50.49039626406369</v>
+        <v>787.3520747071584</v>
       </c>
       <c r="G2" t="n">
-        <v>38.42681375865573</v>
+        <v>371.2480881613464</v>
       </c>
       <c r="H2" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="I2" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J2" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K2" t="n">
-        <v>174.2910552916123</v>
+        <v>174.2910552916105</v>
       </c>
       <c r="L2" t="n">
-        <v>522.1764283765585</v>
+        <v>522.1764283765567</v>
       </c>
       <c r="M2" t="n">
-        <v>915.4155946296464</v>
+        <v>915.4155946296446</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.746953317362</v>
+        <v>1293.74695331736</v>
       </c>
       <c r="O2" t="n">
-        <v>1598.751537790196</v>
+        <v>1598.751537790194</v>
       </c>
       <c r="P2" t="n">
-        <v>1826.908434246249</v>
+        <v>1826.908434246247</v>
       </c>
       <c r="Q2" t="n">
-        <v>1921.340687932786</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R2" t="n">
-        <v>1830.70240142864</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.70240142864</v>
+        <v>1734.111712563139</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.70240142864</v>
+        <v>1734.111712563139</v>
       </c>
       <c r="U2" t="n">
-        <v>1575.817065142634</v>
+        <v>1734.111712563139</v>
       </c>
       <c r="V2" t="n">
-        <v>1575.817065142634</v>
+        <v>1532.821756271759</v>
       </c>
       <c r="W2" t="n">
-        <v>1213.282135000235</v>
+        <v>1170.28682612936</v>
       </c>
       <c r="X2" t="n">
-        <v>831.2519945217282</v>
+        <v>1170.28682612936</v>
       </c>
       <c r="Y2" t="n">
-        <v>827.4686872042848</v>
+        <v>1170.28682612936</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474.5291135829452</v>
+        <v>585.9349909239196</v>
       </c>
       <c r="C3" t="n">
-        <v>312.8254408238998</v>
+        <v>424.2313181648743</v>
       </c>
       <c r="D3" t="n">
-        <v>312.8254408238998</v>
+        <v>285.3926811550864</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7974308807711</v>
+        <v>138.3646712119576</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7974308807711</v>
+        <v>138.3646712119576</v>
       </c>
       <c r="G3" t="n">
-        <v>106.8090990685947</v>
+        <v>138.3646712119576</v>
       </c>
       <c r="H3" t="n">
-        <v>106.8090990685947</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="I3" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J3" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K3" t="n">
-        <v>38.42681375865573</v>
+        <v>118.2095475606138</v>
       </c>
       <c r="L3" t="n">
-        <v>118.2095475606147</v>
+        <v>118.2095475606138</v>
       </c>
       <c r="M3" t="n">
-        <v>593.7413678239793</v>
+        <v>593.741367823978</v>
       </c>
       <c r="N3" t="n">
-        <v>1069.273188087344</v>
+        <v>1069.273188087342</v>
       </c>
       <c r="O3" t="n">
-        <v>1461.473138871495</v>
+        <v>1461.473138871493</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.569058147192</v>
+        <v>1763.56905814719</v>
       </c>
       <c r="Q3" t="n">
-        <v>1921.340687932786</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R3" t="n">
-        <v>1861.556419027732</v>
+        <v>1861.55641902773</v>
       </c>
       <c r="S3" t="n">
-        <v>1708.756932040472</v>
+        <v>1708.75693204047</v>
       </c>
       <c r="T3" t="n">
-        <v>1520.071828206457</v>
+        <v>1520.071828206456</v>
       </c>
       <c r="U3" t="n">
-        <v>1301.577035804768</v>
+        <v>1301.577035804766</v>
       </c>
       <c r="V3" t="n">
-        <v>1073.181413253101</v>
+        <v>1301.577035804766</v>
       </c>
       <c r="W3" t="n">
-        <v>831.8655444864115</v>
+        <v>1060.261167038076</v>
       </c>
       <c r="X3" t="n">
-        <v>633.9485563642061</v>
+        <v>862.3441789158702</v>
       </c>
       <c r="Y3" t="n">
-        <v>633.9485563642061</v>
+        <v>745.3544337051806</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.15070433766624</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="C4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="D4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="E4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="F4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="G4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="H4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="I4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J4" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K4" t="n">
-        <v>72.03100150329914</v>
+        <v>72.03100150329911</v>
       </c>
       <c r="L4" t="n">
-        <v>172.6380809035587</v>
+        <v>172.6380809035586</v>
       </c>
       <c r="M4" t="n">
-        <v>290.6315870311604</v>
+        <v>290.6315870311603</v>
       </c>
       <c r="N4" t="n">
-        <v>409.0539287807608</v>
+        <v>409.0539287807607</v>
       </c>
       <c r="O4" t="n">
         <v>507.5175752764504</v>
       </c>
       <c r="P4" t="n">
-        <v>570.4860590045882</v>
+        <v>570.4860590045881</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.4860590045882</v>
+        <v>531.9487176582771</v>
       </c>
       <c r="R4" t="n">
-        <v>570.4860590045882</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4860590045882</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="T4" t="n">
-        <v>337.3071058202671</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="U4" t="n">
-        <v>337.3071058202671</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="V4" t="n">
-        <v>337.3071058202671</v>
+        <v>324.5832152412565</v>
       </c>
       <c r="W4" t="n">
-        <v>51.15070433766624</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="X4" t="n">
-        <v>51.15070433766624</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.15070433766624</v>
+        <v>38.42681375865569</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1074.625615862079</v>
+        <v>868.6819909942974</v>
       </c>
       <c r="C5" t="n">
-        <v>692.6918571948859</v>
+        <v>868.6819909942974</v>
       </c>
       <c r="D5" t="n">
-        <v>319.8678924221094</v>
+        <v>868.6819909942974</v>
       </c>
       <c r="E5" t="n">
-        <v>319.8678924221094</v>
+        <v>868.6819909942974</v>
       </c>
       <c r="F5" t="n">
-        <v>309.7571057726838</v>
+        <v>454.5308003044677</v>
       </c>
       <c r="G5" t="n">
-        <v>297.6935232672759</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="H5" t="n">
-        <v>211.2440125498597</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="I5" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J5" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K5" t="n">
-        <v>174.2910552916123</v>
+        <v>174.2910552916105</v>
       </c>
       <c r="L5" t="n">
-        <v>522.1764283765585</v>
+        <v>522.1764283765567</v>
       </c>
       <c r="M5" t="n">
-        <v>915.4155946296464</v>
+        <v>915.4155946296446</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.746953317362</v>
+        <v>1293.74695331736</v>
       </c>
       <c r="O5" t="n">
-        <v>1598.751537790196</v>
+        <v>1598.751537790194</v>
       </c>
       <c r="P5" t="n">
-        <v>1826.908434246249</v>
+        <v>1826.908434246247</v>
       </c>
       <c r="Q5" t="n">
-        <v>1921.340687932786</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R5" t="n">
-        <v>1830.70240142864</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="S5" t="n">
-        <v>1830.70240142864</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="T5" t="n">
-        <v>1830.70240142864</v>
+        <v>1830.702401428638</v>
       </c>
       <c r="U5" t="n">
-        <v>1830.70240142864</v>
+        <v>1575.817065142632</v>
       </c>
       <c r="V5" t="n">
-        <v>1830.70240142864</v>
+        <v>1262.725530512316</v>
       </c>
       <c r="W5" t="n">
-        <v>1468.167471286241</v>
+        <v>1262.725530512316</v>
       </c>
       <c r="X5" t="n">
-        <v>1468.167471286241</v>
+        <v>1262.725530512316</v>
       </c>
       <c r="Y5" t="n">
-        <v>1074.625615862079</v>
+        <v>1262.725530512316</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314.1833236785</v>
+        <v>585.9349909239196</v>
       </c>
       <c r="C6" t="n">
-        <v>314.1833236785</v>
+        <v>424.2313181648743</v>
       </c>
       <c r="D6" t="n">
-        <v>314.1833236785</v>
+        <v>285.3926811550864</v>
       </c>
       <c r="E6" t="n">
-        <v>167.1553137353712</v>
+        <v>138.3646712119576</v>
       </c>
       <c r="F6" t="n">
-        <v>167.1553137353712</v>
+        <v>138.3646712119576</v>
       </c>
       <c r="G6" t="n">
-        <v>38.42681375865573</v>
+        <v>138.3646712119576</v>
       </c>
       <c r="H6" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="I6" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J6" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K6" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="L6" t="n">
-        <v>118.2095475606147</v>
+        <v>118.2095475606138</v>
       </c>
       <c r="M6" t="n">
-        <v>593.7413678239793</v>
+        <v>593.741367823978</v>
       </c>
       <c r="N6" t="n">
-        <v>1069.273188087344</v>
+        <v>1069.273188087342</v>
       </c>
       <c r="O6" t="n">
-        <v>1461.473138871495</v>
+        <v>1461.473138871493</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.569058147192</v>
+        <v>1763.56905814719</v>
       </c>
       <c r="Q6" t="n">
-        <v>1921.340687932786</v>
+        <v>1921.340687932784</v>
       </c>
       <c r="R6" t="n">
-        <v>1861.556419027732</v>
+        <v>1861.55641902773</v>
       </c>
       <c r="S6" t="n">
-        <v>1708.756932040472</v>
+        <v>1708.75693204047</v>
       </c>
       <c r="T6" t="n">
-        <v>1552.247364652433</v>
+        <v>1520.071828206456</v>
       </c>
       <c r="U6" t="n">
-        <v>1333.752572250743</v>
+        <v>1301.577035804766</v>
       </c>
       <c r="V6" t="n">
-        <v>1105.356949699077</v>
+        <v>1217.689174163236</v>
       </c>
       <c r="W6" t="n">
-        <v>864.0410809323874</v>
+        <v>976.3733053965462</v>
       </c>
       <c r="X6" t="n">
-        <v>666.124092810182</v>
+        <v>778.4563172743408</v>
       </c>
       <c r="Y6" t="n">
-        <v>473.6027664597609</v>
+        <v>585.9349909239196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="C7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="D7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="E7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="F7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="G7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="H7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="I7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="J7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
       <c r="K7" t="n">
-        <v>72.03100150329914</v>
+        <v>72.03100150329911</v>
       </c>
       <c r="L7" t="n">
-        <v>172.6380809035587</v>
+        <v>172.6380809035586</v>
       </c>
       <c r="M7" t="n">
-        <v>290.6315870311604</v>
+        <v>290.6315870311603</v>
       </c>
       <c r="N7" t="n">
-        <v>409.0539287807608</v>
+        <v>409.0539287807607</v>
       </c>
       <c r="O7" t="n">
         <v>507.5175752764504</v>
       </c>
       <c r="P7" t="n">
-        <v>570.4860590045882</v>
+        <v>570.4860590045881</v>
       </c>
       <c r="Q7" t="n">
-        <v>531.9487176582772</v>
+        <v>531.9487176582771</v>
       </c>
       <c r="R7" t="n">
-        <v>382.4269362726554</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="S7" t="n">
-        <v>382.4269362726554</v>
+        <v>382.4269362726553</v>
       </c>
       <c r="T7" t="n">
-        <v>382.4269362726554</v>
+        <v>149.2479830883342</v>
       </c>
       <c r="U7" t="n">
-        <v>299.1621182002331</v>
+        <v>149.2479830883342</v>
       </c>
       <c r="V7" t="n">
-        <v>38.42681375865573</v>
+        <v>149.2479830883342</v>
       </c>
       <c r="W7" t="n">
-        <v>38.42681375865573</v>
+        <v>149.2479830883342</v>
       </c>
       <c r="X7" t="n">
-        <v>38.42681375865573</v>
+        <v>149.2479830883342</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.42681375865573</v>
+        <v>38.42681375865569</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>397.0198996587235</v>
+        <v>1417.920596900821</v>
       </c>
       <c r="C8" t="n">
-        <v>397.0198996587235</v>
+        <v>1417.920596900821</v>
       </c>
       <c r="D8" t="n">
-        <v>397.0198996587235</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="E8" t="n">
-        <v>397.0198996587235</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F8" t="n">
-        <v>386.9091130092979</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G8" t="n">
-        <v>374.84553050389</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4838,16 +4838,16 @@
         <v>1786.215572286826</v>
       </c>
       <c r="V8" t="n">
-        <v>1786.215572286826</v>
+        <v>1780.45552704322</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.680642144427</v>
+        <v>1417.920596900821</v>
       </c>
       <c r="X8" t="n">
-        <v>1184.605294600905</v>
+        <v>1417.920596900821</v>
       </c>
       <c r="Y8" t="n">
-        <v>791.0634391767427</v>
+        <v>1417.920596900821</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>813.8206734913811</v>
+        <v>539.6773511566869</v>
       </c>
       <c r="C9" t="n">
-        <v>652.1170007323358</v>
+        <v>377.9736783976416</v>
       </c>
       <c r="D9" t="n">
-        <v>513.2783637225479</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4884,13 +4884,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>271.5148086613879</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>756.5481621716143</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4923,10 +4923,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>891.6181202883689</v>
       </c>
       <c r="Y9" t="n">
-        <v>813.8206734913811</v>
+        <v>699.0967939379477</v>
       </c>
     </row>
     <row r="10">
@@ -4987,16 +4987,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>561.3596107681212</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T10" t="n">
-        <v>328.1806575838001</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U10" t="n">
-        <v>328.1806575838001</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V10" t="n">
-        <v>328.1806575838001</v>
+        <v>99.63843430924186</v>
       </c>
       <c r="W10" t="n">
         <v>42.02425610119923</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>743.6496931086813</v>
+        <v>743.6496931086793</v>
       </c>
       <c r="C11" t="n">
-        <v>455.563863788586</v>
+        <v>455.5638637885843</v>
       </c>
       <c r="D11" t="n">
-        <v>372.7995739790254</v>
+        <v>455.5638637885843</v>
       </c>
       <c r="E11" t="n">
-        <v>372.7995739790254</v>
+        <v>289.3621231602299</v>
       </c>
       <c r="F11" t="n">
-        <v>372.7995739790254</v>
+        <v>289.3621231602299</v>
       </c>
       <c r="G11" t="n">
-        <v>50.56026112503406</v>
+        <v>289.3621231602299</v>
       </c>
       <c r="H11" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="I11" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J11" t="n">
-        <v>151.3404345564144</v>
+        <v>215.9320352878606</v>
       </c>
       <c r="K11" t="n">
-        <v>393.5683641668325</v>
+        <v>458.1599648982788</v>
       </c>
       <c r="L11" t="n">
-        <v>836.0238925595065</v>
+        <v>808.6351377378627</v>
       </c>
       <c r="M11" t="n">
-        <v>1324.125065593709</v>
+        <v>1204.755955218975</v>
       </c>
       <c r="N11" t="n">
-        <v>1797.365059192083</v>
+        <v>1677.995948817349</v>
       </c>
       <c r="O11" t="n">
-        <v>2105.134734826042</v>
+        <v>2013.154379272947</v>
       </c>
       <c r="P11" t="n">
-        <v>2335.65157261547</v>
+        <v>2335.651572615466</v>
       </c>
       <c r="Q11" t="n">
-        <v>2523.836399514294</v>
+        <v>2523.836399514289</v>
       </c>
       <c r="R11" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="S11" t="n">
-        <v>2435.013571984536</v>
+        <v>2435.013571984533</v>
       </c>
       <c r="T11" t="n">
-        <v>2304.575853431671</v>
+        <v>2304.575853431667</v>
       </c>
       <c r="U11" t="n">
-        <v>2143.53978604034</v>
+        <v>2143.539786040337</v>
       </c>
       <c r="V11" t="n">
-        <v>1900.408441283379</v>
+        <v>1900.408441283376</v>
       </c>
       <c r="W11" t="n">
-        <v>1631.721440488077</v>
+        <v>1631.721440488074</v>
       </c>
       <c r="X11" t="n">
-        <v>1343.539229356668</v>
+        <v>1343.539229356665</v>
       </c>
       <c r="Y11" t="n">
-        <v>1043.845303279603</v>
+        <v>1043.845303279601</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>889.439510597357</v>
+        <v>889.4395105973533</v>
       </c>
       <c r="C12" t="n">
-        <v>727.7358378383117</v>
+        <v>727.735837838308</v>
       </c>
       <c r="D12" t="n">
-        <v>588.8972008285238</v>
+        <v>588.8972008285201</v>
       </c>
       <c r="E12" t="n">
-        <v>441.869190885395</v>
+        <v>441.8691908853913</v>
       </c>
       <c r="F12" t="n">
-        <v>307.1753928352693</v>
+        <v>307.1753928352657</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4558518728085</v>
+        <v>178.4558518728048</v>
       </c>
       <c r="H12" t="n">
-        <v>118.6340891459464</v>
+        <v>78.60451963611902</v>
       </c>
       <c r="I12" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J12" t="n">
-        <v>71.61442456124703</v>
+        <v>111.6439940710715</v>
       </c>
       <c r="K12" t="n">
-        <v>302.5228724357153</v>
+        <v>302.5228724357116</v>
       </c>
       <c r="L12" t="n">
-        <v>670.2512528350296</v>
+        <v>670.251252835026</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.50944303227</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649307</v>
       </c>
       <c r="O12" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P12" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000483</v>
       </c>
       <c r="Q12" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="R12" t="n">
-        <v>2468.785032108873</v>
+        <v>2468.785032108869</v>
       </c>
       <c r="S12" t="n">
-        <v>2316.151954881999</v>
+        <v>2316.151954881996</v>
       </c>
       <c r="T12" t="n">
-        <v>2127.502962162458</v>
+        <v>2127.502962162454</v>
       </c>
       <c r="U12" t="n">
-        <v>1909.0087591696</v>
+        <v>1909.008759169597</v>
       </c>
       <c r="V12" t="n">
-        <v>1680.613136617934</v>
+        <v>1680.613136617931</v>
       </c>
       <c r="W12" t="n">
-        <v>1439.297267851244</v>
+        <v>1439.297267851241</v>
       </c>
       <c r="X12" t="n">
-        <v>1241.380279729039</v>
+        <v>1241.380279729035</v>
       </c>
       <c r="Y12" t="n">
-        <v>1048.858953378618</v>
+        <v>1048.858953378614</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.6245694734884</v>
+        <v>96.63218093795092</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6245694734884</v>
+        <v>96.63218093795092</v>
       </c>
       <c r="D13" t="n">
-        <v>125.6245694734884</v>
+        <v>96.63218093795092</v>
       </c>
       <c r="E13" t="n">
-        <v>125.6245694734884</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="F13" t="n">
-        <v>125.6245694734884</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="G13" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="H13" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="I13" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.19897299562</v>
+        <v>84.19897299562012</v>
       </c>
       <c r="K13" t="n">
-        <v>210.638785141604</v>
+        <v>210.6387851416043</v>
       </c>
       <c r="L13" t="n">
-        <v>404.3206697619559</v>
+        <v>404.3206697619562</v>
       </c>
       <c r="M13" t="n">
-        <v>615.4484751633349</v>
+        <v>615.4484751633355</v>
       </c>
       <c r="N13" t="n">
-        <v>826.9776779842257</v>
+        <v>826.9776779842265</v>
       </c>
       <c r="O13" t="n">
-        <v>1018.462190209265</v>
+        <v>1018.462190209266</v>
       </c>
       <c r="P13" t="n">
-        <v>1174.301365699971</v>
+        <v>1174.301365699972</v>
       </c>
       <c r="Q13" t="n">
-        <v>1229.127695641266</v>
+        <v>1229.127695641267</v>
       </c>
       <c r="R13" t="n">
-        <v>1173.791562624693</v>
+        <v>1173.791562624695</v>
       </c>
       <c r="S13" t="n">
-        <v>1054.060624516012</v>
+        <v>1054.060624516014</v>
       </c>
       <c r="T13" t="n">
-        <v>914.7616928624357</v>
+        <v>914.7616928624377</v>
       </c>
       <c r="U13" t="n">
-        <v>721.4197923860837</v>
+        <v>721.419792386086</v>
       </c>
       <c r="V13" t="n">
-        <v>554.5324172916037</v>
+        <v>554.5324172916062</v>
       </c>
       <c r="W13" t="n">
-        <v>362.2239451561002</v>
+        <v>362.2239451561029</v>
       </c>
       <c r="X13" t="n">
-        <v>224.8194103985734</v>
+        <v>224.8194103985763</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.6245694734884</v>
+        <v>96.63218093795092</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>743.6496931086818</v>
+        <v>743.649693108679</v>
       </c>
       <c r="C14" t="n">
-        <v>455.5638637885868</v>
+        <v>455.5638637885839</v>
       </c>
       <c r="D14" t="n">
-        <v>176.5878283629079</v>
+        <v>367.6858562543923</v>
       </c>
       <c r="E14" t="n">
-        <v>128.8839942191965</v>
+        <v>367.6858562543923</v>
       </c>
       <c r="F14" t="n">
-        <v>128.8839942191965</v>
+        <v>367.6858562543923</v>
       </c>
       <c r="G14" t="n">
-        <v>128.8839942191965</v>
+        <v>367.6858562543923</v>
       </c>
       <c r="H14" t="n">
-        <v>128.8839942191965</v>
+        <v>128.8839942191964</v>
       </c>
       <c r="I14" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J14" t="n">
-        <v>123.9516797347704</v>
+        <v>123.9516797347703</v>
       </c>
       <c r="K14" t="n">
-        <v>366.1796093451885</v>
+        <v>458.1599648982788</v>
       </c>
       <c r="L14" t="n">
-        <v>808.6351377378627</v>
+        <v>900.6154932909531</v>
       </c>
       <c r="M14" t="n">
-        <v>1296.736310772066</v>
+        <v>1328.301722331114</v>
       </c>
       <c r="N14" t="n">
-        <v>1677.995948817349</v>
+        <v>1801.541715929488</v>
       </c>
       <c r="O14" t="n">
-        <v>2017.331036010361</v>
+        <v>2201.291747116537</v>
       </c>
       <c r="P14" t="n">
-        <v>2339.828229352879</v>
+        <v>2431.808584905966</v>
       </c>
       <c r="Q14" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="R14" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="S14" t="n">
-        <v>2435.013571984536</v>
+        <v>2435.013571984532</v>
       </c>
       <c r="T14" t="n">
-        <v>2304.575853431671</v>
+        <v>2304.575853431667</v>
       </c>
       <c r="U14" t="n">
-        <v>2143.53978604034</v>
+        <v>2143.539786040336</v>
       </c>
       <c r="V14" t="n">
-        <v>1900.408441283379</v>
+        <v>1900.408441283375</v>
       </c>
       <c r="W14" t="n">
-        <v>1631.721440488077</v>
+        <v>1631.721440488074</v>
       </c>
       <c r="X14" t="n">
-        <v>1343.539229356668</v>
+        <v>1343.539229356665</v>
       </c>
       <c r="Y14" t="n">
-        <v>1043.845303279604</v>
+        <v>1043.845303279601</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>889.439510597357</v>
+        <v>889.4395105973533</v>
       </c>
       <c r="C15" t="n">
-        <v>727.7358378383117</v>
+        <v>727.735837838308</v>
       </c>
       <c r="D15" t="n">
-        <v>588.8972008285238</v>
+        <v>588.8972008285201</v>
       </c>
       <c r="E15" t="n">
-        <v>441.869190885395</v>
+        <v>441.8691908853913</v>
       </c>
       <c r="F15" t="n">
-        <v>307.1753928352693</v>
+        <v>307.1753928352657</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4558518728085</v>
+        <v>218.4854213826321</v>
       </c>
       <c r="H15" t="n">
-        <v>78.60451963612266</v>
+        <v>118.6340891459463</v>
       </c>
       <c r="I15" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J15" t="n">
-        <v>71.61442456124703</v>
+        <v>71.6144245612434</v>
       </c>
       <c r="K15" t="n">
-        <v>302.5228724357153</v>
+        <v>302.5228724357116</v>
       </c>
       <c r="L15" t="n">
-        <v>670.2512528350296</v>
+        <v>670.251252835026</v>
       </c>
       <c r="M15" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.50944303227</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649307</v>
       </c>
       <c r="O15" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P15" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000483</v>
       </c>
       <c r="Q15" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="R15" t="n">
-        <v>2468.785032108873</v>
+        <v>2468.785032108869</v>
       </c>
       <c r="S15" t="n">
-        <v>2316.151954881999</v>
+        <v>2316.151954881996</v>
       </c>
       <c r="T15" t="n">
-        <v>2127.502962162458</v>
+        <v>2127.502962162454</v>
       </c>
       <c r="U15" t="n">
-        <v>1909.0087591696</v>
+        <v>1909.008759169597</v>
       </c>
       <c r="V15" t="n">
-        <v>1680.613136617934</v>
+        <v>1680.613136617931</v>
       </c>
       <c r="W15" t="n">
-        <v>1439.297267851244</v>
+        <v>1439.297267851241</v>
       </c>
       <c r="X15" t="n">
-        <v>1241.380279729039</v>
+        <v>1241.380279729035</v>
       </c>
       <c r="Y15" t="n">
-        <v>1048.858953378618</v>
+        <v>1048.858953378614</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.56026112503406</v>
+        <v>167.9453098417571</v>
       </c>
       <c r="C16" t="n">
-        <v>50.56026112503406</v>
+        <v>167.9453098417571</v>
       </c>
       <c r="D16" t="n">
-        <v>50.56026112503406</v>
+        <v>108.7213460166176</v>
       </c>
       <c r="E16" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="F16" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="G16" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="H16" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="I16" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.19897299562014</v>
+        <v>84.19897299562012</v>
       </c>
       <c r="K16" t="n">
-        <v>210.6387851416042</v>
+        <v>210.6387851416043</v>
       </c>
       <c r="L16" t="n">
-        <v>404.3206697619562</v>
+        <v>404.3206697619564</v>
       </c>
       <c r="M16" t="n">
-        <v>615.4484751633354</v>
+        <v>615.4484751633356</v>
       </c>
       <c r="N16" t="n">
-        <v>826.9776779842264</v>
+        <v>826.9776779842266</v>
       </c>
       <c r="O16" t="n">
         <v>1018.462190209266</v>
@@ -5464,22 +5464,22 @@
         <v>1054.060624516014</v>
       </c>
       <c r="T16" t="n">
-        <v>914.7616928624373</v>
+        <v>914.7616928624377</v>
       </c>
       <c r="U16" t="n">
-        <v>721.4197923860855</v>
+        <v>721.419792386086</v>
       </c>
       <c r="V16" t="n">
-        <v>554.5324172916057</v>
+        <v>554.5324172916062</v>
       </c>
       <c r="W16" t="n">
-        <v>362.2239451561023</v>
+        <v>362.2239451561029</v>
       </c>
       <c r="X16" t="n">
-        <v>224.8194103985757</v>
+        <v>224.8194103985763</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.6321809379503</v>
+        <v>167.9453098417571</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1348.758169180684</v>
+        <v>1348.758169180681</v>
       </c>
       <c r="C17" t="n">
-        <v>1136.310899369589</v>
+        <v>1136.310899369586</v>
       </c>
       <c r="D17" t="n">
-        <v>932.9734234529103</v>
+        <v>932.9734234529079</v>
       </c>
       <c r="E17" t="n">
-        <v>707.6741924151149</v>
+        <v>707.6741924151127</v>
       </c>
       <c r="F17" t="n">
-        <v>463.009490581383</v>
+        <v>463.009490581381</v>
       </c>
       <c r="G17" t="n">
-        <v>216.408737236392</v>
+        <v>216.4087372363904</v>
       </c>
       <c r="H17" t="n">
-        <v>53.24543471019631</v>
+        <v>53.24543471019604</v>
       </c>
       <c r="I17" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J17" t="n">
-        <v>123.9516797347704</v>
+        <v>123.9516797347703</v>
       </c>
       <c r="K17" t="n">
-        <v>366.1796093451885</v>
+        <v>366.1796093451884</v>
       </c>
       <c r="L17" t="n">
-        <v>882.7684899126339</v>
+        <v>716.6547821847723</v>
       </c>
       <c r="M17" t="n">
-        <v>1346.148725709437</v>
+        <v>1112.775599665885</v>
       </c>
       <c r="N17" t="n">
-        <v>1727.408363754721</v>
+        <v>1494.035237711169</v>
       </c>
       <c r="O17" t="n">
-        <v>2201.291747116541</v>
+        <v>1956.868030476495</v>
       </c>
       <c r="P17" t="n">
-        <v>2431.808584905969</v>
+        <v>2187.384868265924</v>
       </c>
       <c r="Q17" t="n">
-        <v>2528.013056251703</v>
+        <v>2449.703047339518</v>
       </c>
       <c r="R17" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="S17" t="n">
-        <v>2510.652131493536</v>
+        <v>2510.652131493533</v>
       </c>
       <c r="T17" t="n">
-        <v>2455.852972449671</v>
+        <v>2455.852972449668</v>
       </c>
       <c r="U17" t="n">
-        <v>2370.455464567341</v>
+        <v>2370.455464567337</v>
       </c>
       <c r="V17" t="n">
-        <v>2202.96267931938</v>
+        <v>2202.962679319377</v>
       </c>
       <c r="W17" t="n">
-        <v>2009.914238033079</v>
+        <v>2009.914238033075</v>
       </c>
       <c r="X17" t="n">
-        <v>1797.37058641067</v>
+        <v>1797.370586410667</v>
       </c>
       <c r="Y17" t="n">
-        <v>1573.315219842606</v>
+        <v>1573.315219842603</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>889.439510597357</v>
+        <v>889.4395105973533</v>
       </c>
       <c r="C18" t="n">
-        <v>727.7358378383117</v>
+        <v>727.735837838308</v>
       </c>
       <c r="D18" t="n">
-        <v>588.8972008285238</v>
+        <v>588.8972008285201</v>
       </c>
       <c r="E18" t="n">
-        <v>441.869190885395</v>
+        <v>441.8691908853913</v>
       </c>
       <c r="F18" t="n">
-        <v>307.1753928352693</v>
+        <v>307.1753928352657</v>
       </c>
       <c r="G18" t="n">
-        <v>218.4854213826322</v>
+        <v>178.4558518728048</v>
       </c>
       <c r="H18" t="n">
-        <v>118.6340891459464</v>
+        <v>78.60451963611902</v>
       </c>
       <c r="I18" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J18" t="n">
-        <v>71.61442456124703</v>
+        <v>71.6144245612434</v>
       </c>
       <c r="K18" t="n">
-        <v>302.5228724357153</v>
+        <v>302.5228724357116</v>
       </c>
       <c r="L18" t="n">
-        <v>670.2512528350296</v>
+        <v>670.251252835026</v>
       </c>
       <c r="M18" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.50944303227</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649307</v>
       </c>
       <c r="O18" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P18" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000483</v>
       </c>
       <c r="Q18" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.013056251699</v>
       </c>
       <c r="R18" t="n">
-        <v>2468.785032108873</v>
+        <v>2468.785032108869</v>
       </c>
       <c r="S18" t="n">
-        <v>2316.151954881999</v>
+        <v>2316.151954881996</v>
       </c>
       <c r="T18" t="n">
-        <v>2127.502962162458</v>
+        <v>2127.502962162454</v>
       </c>
       <c r="U18" t="n">
-        <v>1909.0087591696</v>
+        <v>1909.008759169597</v>
       </c>
       <c r="V18" t="n">
-        <v>1680.613136617934</v>
+        <v>1680.613136617931</v>
       </c>
       <c r="W18" t="n">
-        <v>1439.297267851244</v>
+        <v>1439.297267851241</v>
       </c>
       <c r="X18" t="n">
-        <v>1241.380279729039</v>
+        <v>1241.380279729035</v>
       </c>
       <c r="Y18" t="n">
-        <v>1048.858953378618</v>
+        <v>1048.858953378614</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.68974180725605</v>
+        <v>50.68974180725577</v>
       </c>
       <c r="C19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="D19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="E19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="F19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="G19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="H19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="I19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="J19" t="n">
-        <v>50.56026112503406</v>
+        <v>50.56026112503399</v>
       </c>
       <c r="K19" t="n">
-        <v>85.01971771792792</v>
+        <v>85.01971771792785</v>
       </c>
       <c r="L19" t="n">
-        <v>186.7212467851896</v>
+        <v>186.7212467851895</v>
       </c>
       <c r="M19" t="n">
         <v>305.8686966334785</v>
@@ -5689,34 +5689,34 @@
         <v>524.9217005732285</v>
       </c>
       <c r="P19" t="n">
-        <v>588.7805205108439</v>
+        <v>592.5496785540506</v>
       </c>
       <c r="Q19" t="n">
-        <v>612.4480867592814</v>
+        <v>592.5496785540506</v>
       </c>
       <c r="R19" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592795</v>
       </c>
       <c r="S19" t="n">
-        <v>568.3557081596009</v>
+        <v>568.3557081595992</v>
       </c>
       <c r="T19" t="n">
-        <v>504.6953360150243</v>
+        <v>504.6953360150228</v>
       </c>
       <c r="U19" t="n">
-        <v>386.9919950476727</v>
+        <v>386.9919950476714</v>
       </c>
       <c r="V19" t="n">
-        <v>295.743179462193</v>
+        <v>295.743179462192</v>
       </c>
       <c r="W19" t="n">
-        <v>179.0732668356899</v>
+        <v>179.073266835689</v>
       </c>
       <c r="X19" t="n">
-        <v>117.3072915871633</v>
+        <v>117.3072915871627</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.75862163553815</v>
+        <v>64.75862163553768</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1348.758169180684</v>
+        <v>1348.758169180682</v>
       </c>
       <c r="C20" t="n">
-        <v>1136.310899369589</v>
+        <v>1136.310899369588</v>
       </c>
       <c r="D20" t="n">
-        <v>932.9734234529105</v>
+        <v>932.9734234529094</v>
       </c>
       <c r="E20" t="n">
-        <v>707.6741924151152</v>
+        <v>707.6741924151141</v>
       </c>
       <c r="F20" t="n">
-        <v>463.0094905813831</v>
+        <v>463.0094905813824</v>
       </c>
       <c r="G20" t="n">
-        <v>216.4087372363921</v>
+        <v>216.4087372363915</v>
       </c>
       <c r="H20" t="n">
-        <v>53.24543471019631</v>
+        <v>53.24543471019604</v>
       </c>
       <c r="I20" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J20" t="n">
-        <v>123.9516797347704</v>
+        <v>123.9516797347703</v>
       </c>
       <c r="K20" t="n">
-        <v>433.4390276608791</v>
+        <v>366.1796093451884</v>
       </c>
       <c r="L20" t="n">
-        <v>783.914200500463</v>
+        <v>716.6547821847723</v>
       </c>
       <c r="M20" t="n">
-        <v>1346.148725709437</v>
+        <v>1112.775599665885</v>
       </c>
       <c r="N20" t="n">
-        <v>1727.408363754721</v>
+        <v>1494.035237711169</v>
       </c>
       <c r="O20" t="n">
-        <v>2201.291747116541</v>
+        <v>1967.918621072989</v>
       </c>
       <c r="P20" t="n">
-        <v>2431.808584905969</v>
+        <v>2265.694877178105</v>
       </c>
       <c r="Q20" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R20" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="S20" t="n">
-        <v>2510.652131493536</v>
+        <v>2510.652131493533</v>
       </c>
       <c r="T20" t="n">
-        <v>2455.852972449671</v>
+        <v>2455.852972449668</v>
       </c>
       <c r="U20" t="n">
-        <v>2370.455464567341</v>
+        <v>2370.455464567338</v>
       </c>
       <c r="V20" t="n">
-        <v>2202.96267931938</v>
+        <v>2202.962679319377</v>
       </c>
       <c r="W20" t="n">
-        <v>2009.914238033079</v>
+        <v>2009.914238033077</v>
       </c>
       <c r="X20" t="n">
-        <v>1797.37058641067</v>
+        <v>1797.370586410668</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.315219842606</v>
+        <v>1573.315219842604</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>889.439510597357</v>
+        <v>889.4395105973538</v>
       </c>
       <c r="C21" t="n">
-        <v>727.7358378383117</v>
+        <v>727.7358378383085</v>
       </c>
       <c r="D21" t="n">
-        <v>628.9267703383475</v>
+        <v>588.8972008285206</v>
       </c>
       <c r="E21" t="n">
-        <v>481.8987603952187</v>
+        <v>441.8691908853918</v>
       </c>
       <c r="F21" t="n">
-        <v>347.2049623450931</v>
+        <v>307.1753928352662</v>
       </c>
       <c r="G21" t="n">
-        <v>218.4854213826322</v>
+        <v>178.4558518728053</v>
       </c>
       <c r="H21" t="n">
-        <v>118.6340891459464</v>
+        <v>78.60451963611948</v>
       </c>
       <c r="I21" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J21" t="n">
-        <v>71.61442456124703</v>
+        <v>71.61442456124385</v>
       </c>
       <c r="K21" t="n">
-        <v>302.5228724357153</v>
+        <v>302.5228724357121</v>
       </c>
       <c r="L21" t="n">
-        <v>670.2512528350296</v>
+        <v>670.2512528350264</v>
       </c>
       <c r="M21" t="n">
-        <v>1157.509443032274</v>
+        <v>1157.509443032271</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.058810649311</v>
+        <v>1671.058810649308</v>
       </c>
       <c r="O21" t="n">
-        <v>2065.347920439185</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P21" t="n">
-        <v>2369.120574000487</v>
+        <v>2369.120574000484</v>
       </c>
       <c r="Q21" t="n">
-        <v>2528.013056251703</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R21" t="n">
-        <v>2468.785032108873</v>
+        <v>2468.78503210887</v>
       </c>
       <c r="S21" t="n">
-        <v>2316.151954881999</v>
+        <v>2316.151954881996</v>
       </c>
       <c r="T21" t="n">
-        <v>2127.502962162458</v>
+        <v>2127.502962162454</v>
       </c>
       <c r="U21" t="n">
-        <v>1909.0087591696</v>
+        <v>1909.008759169597</v>
       </c>
       <c r="V21" t="n">
-        <v>1680.613136617934</v>
+        <v>1680.613136617931</v>
       </c>
       <c r="W21" t="n">
-        <v>1439.297267851244</v>
+        <v>1439.297267851241</v>
       </c>
       <c r="X21" t="n">
-        <v>1241.380279729039</v>
+        <v>1241.380279729036</v>
       </c>
       <c r="Y21" t="n">
-        <v>1048.858953378618</v>
+        <v>1048.858953378615</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.68974180725605</v>
+        <v>50.68974180725578</v>
       </c>
       <c r="C22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="D22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="E22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="F22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="G22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="H22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="I22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J22" t="n">
-        <v>50.56026112503406</v>
+        <v>50.560261125034</v>
       </c>
       <c r="K22" t="n">
-        <v>85.01971771792792</v>
+        <v>88.78887576113465</v>
       </c>
       <c r="L22" t="n">
-        <v>186.7212467851896</v>
+        <v>190.4904048283963</v>
       </c>
       <c r="M22" t="n">
-        <v>305.8686966334785</v>
+        <v>309.6378546766853</v>
       </c>
       <c r="N22" t="n">
-        <v>425.4175439012791</v>
+        <v>429.1867019444859</v>
       </c>
       <c r="O22" t="n">
-        <v>524.9217005732285</v>
+        <v>528.6908586164352</v>
       </c>
       <c r="P22" t="n">
-        <v>612.4480867592814</v>
+        <v>592.5496785540506</v>
       </c>
       <c r="Q22" t="n">
-        <v>612.4480867592814</v>
+        <v>592.5496785540506</v>
       </c>
       <c r="R22" t="n">
-        <v>612.4480867592814</v>
+        <v>612.4480867592795</v>
       </c>
       <c r="S22" t="n">
-        <v>568.3557081596009</v>
+        <v>568.3557081595992</v>
       </c>
       <c r="T22" t="n">
-        <v>504.6953360150243</v>
+        <v>504.6953360150228</v>
       </c>
       <c r="U22" t="n">
-        <v>386.9919950476727</v>
+        <v>386.9919950476714</v>
       </c>
       <c r="V22" t="n">
-        <v>295.743179462193</v>
+        <v>295.743179462192</v>
       </c>
       <c r="W22" t="n">
-        <v>179.0732668356899</v>
+        <v>179.073266835689</v>
       </c>
       <c r="X22" t="n">
-        <v>117.3072915871633</v>
+        <v>117.3072915871627</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.75862163553815</v>
+        <v>64.75862163553768</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1348.758169180684</v>
+        <v>1348.758169180683</v>
       </c>
       <c r="C23" t="n">
-        <v>1136.310899369589</v>
+        <v>1136.310899369588</v>
       </c>
       <c r="D23" t="n">
-        <v>932.9734234529103</v>
+        <v>932.9734234529095</v>
       </c>
       <c r="E23" t="n">
-        <v>707.6741924151149</v>
+        <v>707.6741924151142</v>
       </c>
       <c r="F23" t="n">
-        <v>463.009490581383</v>
+        <v>463.0094905813825</v>
       </c>
       <c r="G23" t="n">
-        <v>216.408737236392</v>
+        <v>216.4087372363916</v>
       </c>
       <c r="H23" t="n">
-        <v>53.24543471019629</v>
+        <v>53.24543471019604</v>
       </c>
       <c r="I23" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J23" t="n">
-        <v>123.9516797347704</v>
+        <v>123.9516797347703</v>
       </c>
       <c r="K23" t="n">
-        <v>366.1796093451885</v>
+        <v>366.1796093451884</v>
       </c>
       <c r="L23" t="n">
-        <v>716.6547821847723</v>
+        <v>882.768489912634</v>
       </c>
       <c r="M23" t="n">
-        <v>1112.775599665885</v>
+        <v>1278.889307393747</v>
       </c>
       <c r="N23" t="n">
-        <v>1494.035237711169</v>
+        <v>1727.408363754718</v>
       </c>
       <c r="O23" t="n">
-        <v>1956.868030476498</v>
+        <v>2035.178039388677</v>
       </c>
       <c r="P23" t="n">
-        <v>2187.384868265927</v>
+        <v>2431.808584905967</v>
       </c>
       <c r="Q23" t="n">
-        <v>2449.703047339522</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R23" t="n">
-        <v>2528.013056251702</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="S23" t="n">
-        <v>2510.652131493535</v>
+        <v>2510.652131493533</v>
       </c>
       <c r="T23" t="n">
-        <v>2455.85297244967</v>
+        <v>2455.852972449669</v>
       </c>
       <c r="U23" t="n">
-        <v>2370.455464567341</v>
+        <v>2370.455464567339</v>
       </c>
       <c r="V23" t="n">
-        <v>2202.96267931938</v>
+        <v>2202.962679319378</v>
       </c>
       <c r="W23" t="n">
-        <v>2009.914238033078</v>
+        <v>2009.914238033077</v>
       </c>
       <c r="X23" t="n">
-        <v>1797.37058641067</v>
+        <v>1797.370586410668</v>
       </c>
       <c r="Y23" t="n">
-        <v>1573.315219842605</v>
+        <v>1573.315219842604</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>889.439510597356</v>
+        <v>889.4395105973538</v>
       </c>
       <c r="C24" t="n">
-        <v>727.7358378383108</v>
+        <v>727.7358378383085</v>
       </c>
       <c r="D24" t="n">
-        <v>588.8972008285228</v>
+        <v>588.8972008285206</v>
       </c>
       <c r="E24" t="n">
-        <v>441.8691908853941</v>
+        <v>441.8691908853918</v>
       </c>
       <c r="F24" t="n">
-        <v>307.1753928352684</v>
+        <v>307.1753928352662</v>
       </c>
       <c r="G24" t="n">
-        <v>218.4854213826322</v>
+        <v>178.4558518728053</v>
       </c>
       <c r="H24" t="n">
         <v>118.6340891459463</v>
       </c>
       <c r="I24" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6439940710716</v>
+        <v>71.61442456124385</v>
       </c>
       <c r="K24" t="n">
-        <v>302.5228724357144</v>
+        <v>302.5228724357121</v>
       </c>
       <c r="L24" t="n">
-        <v>670.2512528350287</v>
+        <v>670.2512528350264</v>
       </c>
       <c r="M24" t="n">
-        <v>1157.509443032273</v>
+        <v>1157.509443032271</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.05881064931</v>
+        <v>1671.058810649308</v>
       </c>
       <c r="O24" t="n">
-        <v>2065.347920439184</v>
+        <v>2065.347920439182</v>
       </c>
       <c r="P24" t="n">
-        <v>2369.120574000486</v>
+        <v>2369.120574000484</v>
       </c>
       <c r="Q24" t="n">
-        <v>2528.013056251702</v>
+        <v>2528.0130562517</v>
       </c>
       <c r="R24" t="n">
-        <v>2468.785032108872</v>
+        <v>2468.78503210887</v>
       </c>
       <c r="S24" t="n">
-        <v>2316.151954881998</v>
+        <v>2316.151954881996</v>
       </c>
       <c r="T24" t="n">
-        <v>2127.502962162457</v>
+        <v>2127.502962162454</v>
       </c>
       <c r="U24" t="n">
-        <v>1909.008759169599</v>
+        <v>1909.008759169597</v>
       </c>
       <c r="V24" t="n">
-        <v>1680.613136617933</v>
+        <v>1680.613136617931</v>
       </c>
       <c r="W24" t="n">
-        <v>1439.297267851243</v>
+        <v>1439.297267851241</v>
       </c>
       <c r="X24" t="n">
-        <v>1241.380279729038</v>
+        <v>1241.380279729036</v>
       </c>
       <c r="Y24" t="n">
-        <v>1048.858953378617</v>
+        <v>1048.858953378615</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.68974180725603</v>
+        <v>50.68974180725578</v>
       </c>
       <c r="C25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="D25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="E25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="F25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="G25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="H25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="I25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="J25" t="n">
-        <v>50.56026112503404</v>
+        <v>50.560261125034</v>
       </c>
       <c r="K25" t="n">
-        <v>85.0197177179279</v>
+        <v>85.01971771792785</v>
       </c>
       <c r="L25" t="n">
-        <v>186.7212467851896</v>
+        <v>186.7212467851895</v>
       </c>
       <c r="M25" t="n">
         <v>305.8686966334785</v>
@@ -6163,34 +6163,34 @@
         <v>524.9217005732285</v>
       </c>
       <c r="P25" t="n">
-        <v>588.7805205108439</v>
+        <v>612.4480867592795</v>
       </c>
       <c r="Q25" t="n">
-        <v>612.4480867592813</v>
+        <v>612.4480867592795</v>
       </c>
       <c r="R25" t="n">
-        <v>612.4480867592813</v>
+        <v>612.4480867592795</v>
       </c>
       <c r="S25" t="n">
-        <v>568.3557081596008</v>
+        <v>568.3557081595992</v>
       </c>
       <c r="T25" t="n">
-        <v>504.6953360150243</v>
+        <v>504.6953360150228</v>
       </c>
       <c r="U25" t="n">
-        <v>386.9919950476727</v>
+        <v>386.9919950476714</v>
       </c>
       <c r="V25" t="n">
-        <v>295.743179462193</v>
+        <v>295.743179462192</v>
       </c>
       <c r="W25" t="n">
-        <v>179.0732668356898</v>
+        <v>179.073266835689</v>
       </c>
       <c r="X25" t="n">
-        <v>117.3072915871633</v>
+        <v>117.3072915871627</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.75862163553813</v>
+        <v>64.75862163553768</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1157.446630963406</v>
       </c>
       <c r="E26" t="n">
-        <v>889.8428338947867</v>
+        <v>889.8428338947861</v>
       </c>
       <c r="F26" t="n">
-        <v>602.8735660302307</v>
+        <v>602.87356603023</v>
       </c>
       <c r="G26" t="n">
-        <v>313.9682466544155</v>
+        <v>313.9682466544149</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5003780973962</v>
+        <v>108.5003780973951</v>
       </c>
       <c r="I26" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140878</v>
       </c>
       <c r="J26" t="n">
-        <v>261.5530596521962</v>
+        <v>261.5530596521958</v>
       </c>
       <c r="K26" t="n">
-        <v>628.4319918236647</v>
+        <v>628.4319918236645</v>
       </c>
       <c r="L26" t="n">
         <v>1103.558167224299</v>
       </c>
       <c r="M26" t="n">
-        <v>1624.329987266463</v>
+        <v>1624.329987266462</v>
       </c>
       <c r="N26" t="n">
         <v>2130.240627872797</v>
       </c>
       <c r="O26" t="n">
-        <v>2562.661306067807</v>
+        <v>2562.661306067806</v>
       </c>
       <c r="P26" t="n">
-        <v>2917.829146418286</v>
+        <v>2917.829146418285</v>
       </c>
       <c r="Q26" t="n">
-        <v>3138.68462032507</v>
+        <v>3138.684620325069</v>
       </c>
       <c r="R26" t="n">
-        <v>3175.53192407044</v>
+        <v>3175.531924070439</v>
       </c>
       <c r="S26" t="n">
-        <v>3115.866433281449</v>
+        <v>3115.866433281448</v>
       </c>
       <c r="T26" t="n">
-        <v>3018.76270820676</v>
+        <v>3018.762708206759</v>
       </c>
       <c r="U26" t="n">
         <v>2891.060634293605</v>
@@ -6263,13 +6263,13 @@
         <v>2681.26328301482</v>
       </c>
       <c r="W26" t="n">
-        <v>2445.910275697695</v>
+        <v>2445.910275697694</v>
       </c>
       <c r="X26" t="n">
         <v>2191.062058044462</v>
       </c>
       <c r="Y26" t="n">
-        <v>1924.702125445574</v>
+        <v>1924.702125445573</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>942.4194574635565</v>
+        <v>942.4194574635557</v>
       </c>
       <c r="C27" t="n">
-        <v>780.7157847045112</v>
+        <v>780.7157847045105</v>
       </c>
       <c r="D27" t="n">
-        <v>641.8771476947232</v>
+        <v>641.8771476947227</v>
       </c>
       <c r="E27" t="n">
-        <v>494.8491377515945</v>
+        <v>494.8491377515938</v>
       </c>
       <c r="F27" t="n">
-        <v>360.1553397014688</v>
+        <v>360.1553397014682</v>
       </c>
       <c r="G27" t="n">
-        <v>231.435798739008</v>
+        <v>231.4357987390068</v>
       </c>
       <c r="H27" t="n">
         <v>131.5844665023211</v>
       </c>
       <c r="I27" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140878</v>
       </c>
       <c r="J27" t="n">
-        <v>124.5943714274464</v>
+        <v>124.5943714274463</v>
       </c>
       <c r="K27" t="n">
-        <v>355.5028193019146</v>
+        <v>355.5028193019145</v>
       </c>
       <c r="L27" t="n">
         <v>723.2311997012289</v>
@@ -6318,31 +6318,31 @@
         <v>1724.03875751551</v>
       </c>
       <c r="O27" t="n">
-        <v>2118.327867305385</v>
+        <v>2118.327867305384</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.100520866687</v>
+        <v>2422.100520866686</v>
       </c>
       <c r="Q27" t="n">
         <v>2580.993003117902</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.764978975073</v>
+        <v>2521.764978975072</v>
       </c>
       <c r="S27" t="n">
-        <v>2369.131901748199</v>
+        <v>2369.131901748198</v>
       </c>
       <c r="T27" t="n">
         <v>2180.482909028657</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.9887060358</v>
+        <v>1961.988706035799</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.593083484134</v>
+        <v>1733.593083484133</v>
       </c>
       <c r="W27" t="n">
-        <v>1492.277214717444</v>
+        <v>1492.277214717443</v>
       </c>
       <c r="X27" t="n">
         <v>1294.360226595238</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>272.6099845391911</v>
+        <v>272.609984539191</v>
       </c>
       <c r="C28" t="n">
-        <v>230.1759378261451</v>
+        <v>230.1759378261449</v>
       </c>
       <c r="D28" t="n">
-        <v>204.2859674791814</v>
+        <v>204.2859674791812</v>
       </c>
       <c r="E28" t="n">
-        <v>179.4588760657739</v>
+        <v>179.4588760657737</v>
       </c>
       <c r="F28" t="n">
-        <v>154.1601439168246</v>
+        <v>154.1601439168245</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4298290465464</v>
+        <v>112.4298290465463</v>
       </c>
       <c r="H28" t="n">
-        <v>80.30588570557606</v>
+        <v>80.305885705576</v>
       </c>
       <c r="I28" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140878</v>
       </c>
       <c r="J28" t="n">
-        <v>63.5106384814088</v>
+        <v>129.8199973599552</v>
       </c>
       <c r="K28" t="n">
-        <v>192.4421842390867</v>
+        <v>164.2794539528491</v>
       </c>
       <c r="L28" t="n">
-        <v>294.1437133063483</v>
+        <v>331.2977389181431</v>
       </c>
       <c r="M28" t="n">
-        <v>537.9421657156879</v>
+        <v>575.0961913274828</v>
       </c>
       <c r="N28" t="n">
-        <v>782.1420155445393</v>
+        <v>819.2960411563341</v>
       </c>
       <c r="O28" t="n">
-        <v>1006.297174777539</v>
+        <v>918.8001978282834</v>
       </c>
       <c r="P28" t="n">
-        <v>1194.806997276205</v>
+        <v>1107.31002032695</v>
       </c>
       <c r="Q28" t="n">
         <v>1194.806997276205</v>
@@ -6409,25 +6409,25 @@
         <v>1172.804857737809</v>
       </c>
       <c r="S28" t="n">
-        <v>1086.407913107305</v>
+        <v>1086.407913107304</v>
       </c>
       <c r="T28" t="n">
-        <v>980.442974931904</v>
+        <v>980.4429749319038</v>
       </c>
       <c r="U28" t="n">
-        <v>820.4350679337283</v>
+        <v>820.4350679337281</v>
       </c>
       <c r="V28" t="n">
-        <v>686.8816863174245</v>
+        <v>686.8816863174244</v>
       </c>
       <c r="W28" t="n">
-        <v>527.9072076600972</v>
+        <v>527.9072076600971</v>
       </c>
       <c r="X28" t="n">
-        <v>423.8366663807466</v>
+        <v>423.8366663807465</v>
       </c>
       <c r="Y28" t="n">
-        <v>328.9834303982973</v>
+        <v>328.9834303982972</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1657.840508752829</v>
+        <v>1657.840508752828</v>
       </c>
       <c r="C29" t="n">
         <v>1403.088672910909</v>
       </c>
       <c r="D29" t="n">
-        <v>1157.446630963407</v>
+        <v>1157.446630963406</v>
       </c>
       <c r="E29" t="n">
-        <v>889.842833894787</v>
+        <v>889.8428338947863</v>
       </c>
       <c r="F29" t="n">
-        <v>602.8735660302307</v>
+        <v>602.8735660302302</v>
       </c>
       <c r="G29" t="n">
-        <v>313.9682466544155</v>
+        <v>313.9682466544151</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5003780973953</v>
+        <v>108.5003780973952</v>
       </c>
       <c r="I29" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140878</v>
       </c>
       <c r="J29" t="n">
-        <v>261.553059652198</v>
+        <v>261.5530596521958</v>
       </c>
       <c r="K29" t="n">
-        <v>628.4319918236666</v>
+        <v>628.4319918236638</v>
       </c>
       <c r="L29" t="n">
-        <v>1103.558167224301</v>
+        <v>1103.558167224299</v>
       </c>
       <c r="M29" t="n">
-        <v>1624.329987266464</v>
+        <v>1624.329987266462</v>
       </c>
       <c r="N29" t="n">
-        <v>2130.240627872799</v>
+        <v>2130.240627872796</v>
       </c>
       <c r="O29" t="n">
-        <v>2562.661306067808</v>
+        <v>2562.661306067806</v>
       </c>
       <c r="P29" t="n">
-        <v>2917.829146418287</v>
+        <v>2917.829146418285</v>
       </c>
       <c r="Q29" t="n">
-        <v>3138.684620325071</v>
+        <v>3138.684620325069</v>
       </c>
       <c r="R29" t="n">
-        <v>3175.53192407044</v>
+        <v>3175.531924070439</v>
       </c>
       <c r="S29" t="n">
-        <v>3115.866433281449</v>
+        <v>3115.866433281448</v>
       </c>
       <c r="T29" t="n">
-        <v>3018.76270820676</v>
+        <v>3018.762708206759</v>
       </c>
       <c r="U29" t="n">
-        <v>2891.060634293606</v>
+        <v>2891.060634293605</v>
       </c>
       <c r="V29" t="n">
-        <v>2681.263283014821</v>
+        <v>2681.26328301482</v>
       </c>
       <c r="W29" t="n">
-        <v>2445.910275697696</v>
+        <v>2445.910275697694</v>
       </c>
       <c r="X29" t="n">
-        <v>2191.062058044463</v>
+        <v>2191.062058044462</v>
       </c>
       <c r="Y29" t="n">
-        <v>1924.702125445574</v>
+        <v>1924.702125445573</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>942.4194574635557</v>
+        <v>942.4194574635554</v>
       </c>
       <c r="C30" t="n">
-        <v>780.7157847045105</v>
+        <v>780.7157847045102</v>
       </c>
       <c r="D30" t="n">
-        <v>641.8771476947227</v>
+        <v>641.8771476947222</v>
       </c>
       <c r="E30" t="n">
-        <v>494.8491377515938</v>
+        <v>494.8491377515935</v>
       </c>
       <c r="F30" t="n">
-        <v>360.1553397014682</v>
+        <v>360.1553397014678</v>
       </c>
       <c r="G30" t="n">
-        <v>231.4357987390068</v>
+        <v>231.4357987390069</v>
       </c>
       <c r="H30" t="n">
         <v>131.5844665023211</v>
       </c>
       <c r="I30" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140878</v>
       </c>
       <c r="J30" t="n">
-        <v>124.5943714274464</v>
+        <v>124.5943714274463</v>
       </c>
       <c r="K30" t="n">
-        <v>355.5028193019146</v>
+        <v>355.5028193019139</v>
       </c>
       <c r="L30" t="n">
-        <v>723.2311997012289</v>
+        <v>723.2311997012282</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.489389898473</v>
+        <v>1210.489389898472</v>
       </c>
       <c r="N30" t="n">
-        <v>1724.03875751551</v>
+        <v>1724.038757515509</v>
       </c>
       <c r="O30" t="n">
         <v>2118.327867305384</v>
@@ -6561,7 +6561,7 @@
         <v>2422.100520866686</v>
       </c>
       <c r="Q30" t="n">
-        <v>2580.993003117902</v>
+        <v>2580.993003117901</v>
       </c>
       <c r="R30" t="n">
         <v>2521.764978975072</v>
@@ -6570,7 +6570,7 @@
         <v>2369.131901748198</v>
       </c>
       <c r="T30" t="n">
-        <v>2180.482909028657</v>
+        <v>2180.482909028656</v>
       </c>
       <c r="U30" t="n">
         <v>1961.988706035799</v>
@@ -6582,10 +6582,10 @@
         <v>1492.277214717443</v>
       </c>
       <c r="X30" t="n">
-        <v>1294.360226595238</v>
+        <v>1294.360226595237</v>
       </c>
       <c r="Y30" t="n">
-        <v>1101.838900244817</v>
+        <v>1101.838900244816</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>272.609984539192</v>
+        <v>272.609984539191</v>
       </c>
       <c r="C31" t="n">
-        <v>230.1759378261458</v>
+        <v>230.1759378261449</v>
       </c>
       <c r="D31" t="n">
-        <v>204.285967479182</v>
+        <v>204.2859674791812</v>
       </c>
       <c r="E31" t="n">
-        <v>179.4588760657743</v>
+        <v>179.4588760657737</v>
       </c>
       <c r="F31" t="n">
-        <v>154.1601439168249</v>
+        <v>154.1601439168245</v>
       </c>
       <c r="G31" t="n">
-        <v>112.4298290465466</v>
+        <v>112.4298290465463</v>
       </c>
       <c r="H31" t="n">
-        <v>80.30588570557619</v>
+        <v>80.305885705576</v>
       </c>
       <c r="I31" t="n">
-        <v>63.5106384814088</v>
+        <v>63.51063848140878</v>
       </c>
       <c r="J31" t="n">
-        <v>63.5106384814088</v>
+        <v>129.8199973599552</v>
       </c>
       <c r="K31" t="n">
-        <v>97.97009507430266</v>
+        <v>288.9304565138997</v>
       </c>
       <c r="L31" t="n">
-        <v>324.3226267026149</v>
+        <v>515.2829881422122</v>
       </c>
       <c r="M31" t="n">
-        <v>568.1210791119544</v>
+        <v>634.4304379905011</v>
       </c>
       <c r="N31" t="n">
-        <v>812.3209289408055</v>
+        <v>878.6302878193525</v>
       </c>
       <c r="O31" t="n">
-        <v>1036.476088173805</v>
+        <v>1102.785447052353</v>
       </c>
       <c r="P31" t="n">
-        <v>1107.310020326952</v>
+        <v>1166.644266989968</v>
       </c>
       <c r="Q31" t="n">
-        <v>1194.806997276207</v>
+        <v>1194.806997276205</v>
       </c>
       <c r="R31" t="n">
-        <v>1172.804857737811</v>
+        <v>1172.804857737809</v>
       </c>
       <c r="S31" t="n">
-        <v>1086.407913107306</v>
+        <v>1086.407913107304</v>
       </c>
       <c r="T31" t="n">
-        <v>980.4429749319056</v>
+        <v>980.4429749319038</v>
       </c>
       <c r="U31" t="n">
-        <v>820.4350679337298</v>
+        <v>820.4350679337281</v>
       </c>
       <c r="V31" t="n">
-        <v>686.8816863174259</v>
+        <v>686.8816863174244</v>
       </c>
       <c r="W31" t="n">
-        <v>527.9072076600985</v>
+        <v>527.9072076600971</v>
       </c>
       <c r="X31" t="n">
-        <v>423.8366663807477</v>
+        <v>423.8366663807465</v>
       </c>
       <c r="Y31" t="n">
-        <v>328.9834303982983</v>
+        <v>328.9834303982972</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1571.98155151079</v>
+        <v>1571.981551510788</v>
       </c>
       <c r="C32" t="n">
-        <v>1328.981360654513</v>
+        <v>1328.981360654511</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.090963692652</v>
+        <v>1095.090963692651</v>
       </c>
       <c r="E32" t="n">
-        <v>839.2388116096749</v>
+        <v>839.2388116096733</v>
       </c>
       <c r="F32" t="n">
-        <v>564.021188730761</v>
+        <v>564.0211887307596</v>
       </c>
       <c r="G32" t="n">
-        <v>286.8675143405874</v>
+        <v>286.8675143405867</v>
       </c>
       <c r="H32" t="n">
-        <v>93.1512907692096</v>
+        <v>93.15129076920934</v>
       </c>
       <c r="I32" t="n">
-        <v>59.91319613886531</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="J32" t="n">
-        <v>269.47340456008</v>
+        <v>269.4734045600802</v>
       </c>
       <c r="K32" t="n">
-        <v>511.7013341704982</v>
+        <v>647.870123981977</v>
       </c>
       <c r="L32" t="n">
-        <v>862.1765070100821</v>
+        <v>1134.51408663304</v>
       </c>
       <c r="M32" t="n">
-        <v>1394.466114302673</v>
+        <v>1666.803693925631</v>
       </c>
       <c r="N32" t="n">
-        <v>1911.894542159435</v>
+        <v>2048.063331970915</v>
       </c>
       <c r="O32" t="n">
-        <v>2355.833007604873</v>
+        <v>2396.600918185143</v>
       </c>
       <c r="P32" t="n">
-        <v>2722.518635205779</v>
+        <v>2763.28654578605</v>
       </c>
       <c r="Q32" t="n">
-        <v>2947.294715947467</v>
+        <v>2995.659806943262</v>
       </c>
       <c r="R32" t="n">
-        <v>2995.659806943265</v>
+        <v>2995.659806943262</v>
       </c>
       <c r="S32" t="n">
-        <v>2947.745961139916</v>
+        <v>2947.745961139914</v>
       </c>
       <c r="T32" t="n">
-        <v>2862.393881050869</v>
+        <v>2862.393881050867</v>
       </c>
       <c r="U32" t="n">
-        <v>2746.443452123357</v>
+        <v>2746.443452123354</v>
       </c>
       <c r="V32" t="n">
-        <v>2548.397745830214</v>
+        <v>2548.397745830212</v>
       </c>
       <c r="W32" t="n">
-        <v>2324.796383498731</v>
+        <v>2324.796383498729</v>
       </c>
       <c r="X32" t="n">
-        <v>2081.69981083114</v>
+        <v>2081.699810831138</v>
       </c>
       <c r="Y32" t="n">
-        <v>1827.091523217894</v>
+        <v>1827.091523217891</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>938.822015121012</v>
+        <v>938.8220151210128</v>
       </c>
       <c r="C33" t="n">
-        <v>777.1183423619667</v>
+        <v>777.1183423619675</v>
       </c>
       <c r="D33" t="n">
-        <v>638.2797053521788</v>
+        <v>638.2797053521796</v>
       </c>
       <c r="E33" t="n">
-        <v>491.2516954090499</v>
+        <v>491.2516954090508</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5578973589243</v>
+        <v>356.5578973589252</v>
       </c>
       <c r="G33" t="n">
         <v>227.8383563964634</v>
@@ -6774,55 +6774,55 @@
         <v>127.9870241597776</v>
       </c>
       <c r="I33" t="n">
-        <v>59.91319613886531</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="J33" t="n">
-        <v>120.996929084902</v>
+        <v>120.9969290849028</v>
       </c>
       <c r="K33" t="n">
-        <v>351.9053769593702</v>
+        <v>351.905376959371</v>
       </c>
       <c r="L33" t="n">
-        <v>719.6337573586845</v>
+        <v>719.6337573586854</v>
       </c>
       <c r="M33" t="n">
-        <v>1206.891947555929</v>
+        <v>1206.89194755593</v>
       </c>
       <c r="N33" t="n">
-        <v>1720.441315172966</v>
+        <v>1720.441315172967</v>
       </c>
       <c r="O33" t="n">
-        <v>2114.73042496284</v>
+        <v>2114.730424962841</v>
       </c>
       <c r="P33" t="n">
-        <v>2418.503078524142</v>
+        <v>2418.503078524143</v>
       </c>
       <c r="Q33" t="n">
-        <v>2577.395560775358</v>
+        <v>2577.395560775359</v>
       </c>
       <c r="R33" t="n">
-        <v>2518.167536632528</v>
+        <v>2518.167536632529</v>
       </c>
       <c r="S33" t="n">
-        <v>2365.534459405654</v>
+        <v>2365.534459405655</v>
       </c>
       <c r="T33" t="n">
         <v>2176.885466686113</v>
       </c>
       <c r="U33" t="n">
-        <v>1958.391263693255</v>
+        <v>1958.391263693256</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.995641141589</v>
+        <v>1729.99564114159</v>
       </c>
       <c r="W33" t="n">
-        <v>1488.679772374899</v>
+        <v>1488.6797723749</v>
       </c>
       <c r="X33" t="n">
-        <v>1290.762784252694</v>
+        <v>1290.762784252695</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.241457902273</v>
+        <v>1098.241457902274</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.7510272971532</v>
+        <v>186.7510272971517</v>
       </c>
       <c r="C34" t="n">
-        <v>156.0686255697491</v>
+        <v>156.0686255697479</v>
       </c>
       <c r="D34" t="n">
-        <v>141.9303002084276</v>
+        <v>141.9303002084265</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8548537806621</v>
+        <v>128.8548537806612</v>
       </c>
       <c r="F34" t="n">
-        <v>115.3077666173549</v>
+        <v>115.3077666173542</v>
       </c>
       <c r="G34" t="n">
-        <v>85.32909673271877</v>
+        <v>85.32909673271831</v>
       </c>
       <c r="H34" t="n">
-        <v>64.9567983773905</v>
+        <v>64.95679837739024</v>
       </c>
       <c r="I34" t="n">
-        <v>59.91319613886531</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="J34" t="n">
-        <v>59.91319613886531</v>
+        <v>59.91319613886525</v>
       </c>
       <c r="K34" t="n">
-        <v>230.5414425432377</v>
+        <v>227.0848527475122</v>
       </c>
       <c r="L34" t="n">
-        <v>332.2429716104994</v>
+        <v>464.9551716262525</v>
       </c>
       <c r="M34" t="n">
-        <v>485.0878572748618</v>
+        <v>720.2714112860201</v>
       </c>
       <c r="N34" t="n">
-        <v>604.6367045426624</v>
+        <v>839.8202585538207</v>
       </c>
       <c r="O34" t="n">
-        <v>704.1408612146117</v>
+        <v>939.3244152257701</v>
       </c>
       <c r="P34" t="n">
-        <v>904.1684709637057</v>
+        <v>1003.183235163385</v>
       </c>
       <c r="Q34" t="n">
-        <v>1003.183235163389</v>
+        <v>1003.183235163385</v>
       </c>
       <c r="R34" t="n">
-        <v>992.9327406106348</v>
+        <v>992.9327406106316</v>
       </c>
       <c r="S34" t="n">
-        <v>918.2874409657722</v>
+        <v>918.2874409657693</v>
       </c>
       <c r="T34" t="n">
-        <v>824.0741477760137</v>
+        <v>824.0741477760109</v>
       </c>
       <c r="U34" t="n">
-        <v>675.81788576348</v>
+        <v>675.8178857634775</v>
       </c>
       <c r="V34" t="n">
-        <v>554.0161491328183</v>
+        <v>554.0161491328161</v>
       </c>
       <c r="W34" t="n">
-        <v>406.7933154611331</v>
+        <v>406.793315461131</v>
       </c>
       <c r="X34" t="n">
-        <v>314.4744191674246</v>
+        <v>314.4744191674227</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.3728281706173</v>
+        <v>231.3728281706157</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6917,43 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D35" t="n">
-        <v>947.1335432795154</v>
+        <v>947.1335432795153</v>
       </c>
       <c r="E35" t="n">
-        <v>719.1656742743983</v>
+        <v>719.1656742743982</v>
       </c>
       <c r="F35" t="n">
-        <v>471.8323344733448</v>
+        <v>471.8323344733446</v>
       </c>
       <c r="G35" t="n">
-        <v>222.5629431610321</v>
+        <v>222.5629431610319</v>
       </c>
       <c r="H35" t="n">
-        <v>56.73100266751435</v>
+        <v>56.73100266751438</v>
       </c>
       <c r="I35" t="n">
         <v>51.37719111503048</v>
       </c>
       <c r="J35" t="n">
-        <v>124.7686097247668</v>
+        <v>237.2886616938259</v>
       </c>
       <c r="K35" t="n">
-        <v>366.9965393351849</v>
+        <v>643.0147669603334</v>
       </c>
       <c r="L35" t="n">
-        <v>717.4717121747688</v>
+        <v>993.4899397999174</v>
       </c>
       <c r="M35" t="n">
-        <v>1113.592529655882</v>
+        <v>1389.61075728103</v>
       </c>
       <c r="N35" t="n">
-        <v>1494.852167701165</v>
+        <v>1770.870395326314</v>
       </c>
       <c r="O35" t="n">
-        <v>1966.120018991214</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P35" t="n">
-        <v>2309.156908749701</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q35" t="n">
         <v>2568.859555751524</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.2860100971772</v>
+        <v>930.2860100971782</v>
       </c>
       <c r="C36" t="n">
-        <v>768.5823373381319</v>
+        <v>768.5823373381329</v>
       </c>
       <c r="D36" t="n">
-        <v>629.7437003283439</v>
+        <v>629.743700328345</v>
       </c>
       <c r="E36" t="n">
-        <v>482.7156903852151</v>
+        <v>482.7156903852162</v>
       </c>
       <c r="F36" t="n">
-        <v>348.0218923350895</v>
+        <v>348.0218923350906</v>
       </c>
       <c r="G36" t="n">
         <v>219.3023513726286</v>
@@ -7014,52 +7014,52 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J36" t="n">
-        <v>112.4609240610673</v>
+        <v>112.4609240610681</v>
       </c>
       <c r="K36" t="n">
-        <v>343.3693719355356</v>
+        <v>343.3693719355363</v>
       </c>
       <c r="L36" t="n">
-        <v>711.0977523348499</v>
+        <v>711.0977523348506</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.355942532094</v>
+        <v>1198.355942532095</v>
       </c>
       <c r="N36" t="n">
-        <v>1711.905310149131</v>
+        <v>1711.905310149132</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.194419939005</v>
+        <v>2106.194419939006</v>
       </c>
       <c r="P36" t="n">
-        <v>2409.967073500307</v>
+        <v>2409.967073500308</v>
       </c>
       <c r="Q36" t="n">
-        <v>2568.859555751523</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.631531608693</v>
+        <v>2509.631531608694</v>
       </c>
       <c r="S36" t="n">
         <v>2356.99845438182</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.349461662278</v>
+        <v>2168.349461662279</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.855258669421</v>
+        <v>1949.855258669422</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.459636117755</v>
+        <v>1721.459636117756</v>
       </c>
       <c r="W36" t="n">
         <v>1480.143767351065</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.226779228859</v>
+        <v>1282.22677922886</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.705452878438</v>
+        <v>1089.705452878439</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.26969657134978</v>
+        <v>54.17530976457412</v>
       </c>
       <c r="C37" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="D37" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="E37" t="n">
-        <v>53.47157792180617</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47157792180617</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="G37" t="n">
         <v>51.37719111503048</v>
@@ -7111,34 +7111,34 @@
         <v>525.7386305632249</v>
       </c>
       <c r="P37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="Q37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="R37" t="n">
-        <v>639.377145261948</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="S37" t="n">
-        <v>592.6161286949459</v>
+        <v>590.5217418881706</v>
       </c>
       <c r="T37" t="n">
-        <v>526.2871185830478</v>
+        <v>524.1927317762724</v>
       </c>
       <c r="U37" t="n">
-        <v>405.9151396483746</v>
+        <v>403.8207528415991</v>
       </c>
       <c r="V37" t="n">
-        <v>311.9976860955733</v>
+        <v>309.9032992887977</v>
       </c>
       <c r="W37" t="n">
-        <v>192.6591355017485</v>
+        <v>190.5647486949729</v>
       </c>
       <c r="X37" t="n">
-        <v>128.2245222859003</v>
+        <v>126.1301354791247</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.00721436695352</v>
+        <v>70.91282756017787</v>
       </c>
     </row>
     <row r="38">
@@ -7160,13 +7160,13 @@
         <v>719.165674274398</v>
       </c>
       <c r="F38" t="n">
-        <v>471.8323344733444</v>
+        <v>471.8323344733445</v>
       </c>
       <c r="G38" t="n">
-        <v>222.5629431610317</v>
+        <v>222.5629431610318</v>
       </c>
       <c r="H38" t="n">
-        <v>56.73100266751435</v>
+        <v>56.73100266751438</v>
       </c>
       <c r="I38" t="n">
         <v>51.37719111503048</v>
@@ -7175,25 +7175,25 @@
         <v>124.7686097247668</v>
       </c>
       <c r="K38" t="n">
-        <v>366.9965393351849</v>
+        <v>530.4947149912743</v>
       </c>
       <c r="L38" t="n">
-        <v>717.4717121747688</v>
+        <v>993.4899397999178</v>
       </c>
       <c r="M38" t="n">
-        <v>1150.418104784532</v>
+        <v>1389.610757281031</v>
       </c>
       <c r="N38" t="n">
-        <v>1531.677742829816</v>
+        <v>1934.368570982404</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.945594119864</v>
+        <v>2242.138246616362</v>
       </c>
       <c r="P38" t="n">
-        <v>2233.462431909293</v>
+        <v>2472.655084405791</v>
       </c>
       <c r="Q38" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R38" t="n">
         <v>2568.859555751524</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.1753097645741</v>
+        <v>54.17530976457412</v>
       </c>
       <c r="C40" t="n">
         <v>51.37719111503048</v>
@@ -7315,10 +7315,10 @@
         <v>51.37719111503048</v>
       </c>
       <c r="E40" t="n">
-        <v>51.37719111503048</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="F40" t="n">
-        <v>53.47157792180617</v>
+        <v>53.4715779218062</v>
       </c>
       <c r="G40" t="n">
         <v>51.37719111503048</v>
@@ -7327,55 +7327,55 @@
         <v>51.37719111503048</v>
       </c>
       <c r="I40" t="n">
-        <v>51.37719111503048</v>
+        <v>73.76334240566291</v>
       </c>
       <c r="J40" t="n">
-        <v>51.37719111503048</v>
+        <v>73.76334240566291</v>
       </c>
       <c r="K40" t="n">
-        <v>85.83664770792434</v>
+        <v>108.2227989985568</v>
       </c>
       <c r="L40" t="n">
-        <v>187.538176775186</v>
+        <v>209.9243280658184</v>
       </c>
       <c r="M40" t="n">
-        <v>306.6856266234749</v>
+        <v>329.0717779141074</v>
       </c>
       <c r="N40" t="n">
-        <v>426.2344738912756</v>
+        <v>448.6206251819081</v>
       </c>
       <c r="O40" t="n">
-        <v>525.7386305632249</v>
+        <v>548.1247818538574</v>
       </c>
       <c r="P40" t="n">
-        <v>589.5974505008403</v>
+        <v>611.9836017914728</v>
       </c>
       <c r="Q40" t="n">
-        <v>619.9998823217156</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="R40" t="n">
-        <v>637.2827584551724</v>
+        <v>637.2827584551728</v>
       </c>
       <c r="S40" t="n">
-        <v>590.5217418881703</v>
+        <v>590.5217418881706</v>
       </c>
       <c r="T40" t="n">
-        <v>524.192731776272</v>
+        <v>524.1927317762724</v>
       </c>
       <c r="U40" t="n">
-        <v>403.8207528415988</v>
+        <v>403.8207528415991</v>
       </c>
       <c r="V40" t="n">
-        <v>309.9032992887975</v>
+        <v>309.9032992887977</v>
       </c>
       <c r="W40" t="n">
-        <v>190.5647486949728</v>
+        <v>190.5647486949729</v>
       </c>
       <c r="X40" t="n">
-        <v>126.1301354791246</v>
+        <v>126.1301354791247</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.91282756017782</v>
+        <v>70.91282756017787</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1153.139657163515</v>
       </c>
       <c r="D41" t="n">
-        <v>947.1335432795149</v>
+        <v>947.1335432795148</v>
       </c>
       <c r="E41" t="n">
         <v>719.1656742743978</v>
       </c>
       <c r="F41" t="n">
-        <v>471.8323344733442</v>
+        <v>471.8323344733443</v>
       </c>
       <c r="G41" t="n">
         <v>222.5629431610317</v>
       </c>
       <c r="H41" t="n">
-        <v>56.73100266751435</v>
+        <v>56.73100266751432</v>
       </c>
       <c r="I41" t="n">
         <v>51.37719111503048</v>
@@ -7415,22 +7415,22 @@
         <v>366.9965393351849</v>
       </c>
       <c r="L41" t="n">
-        <v>717.4717121747688</v>
+        <v>880.9698878308584</v>
       </c>
       <c r="M41" t="n">
-        <v>1226.112581624941</v>
+        <v>1277.090705311971</v>
       </c>
       <c r="N41" t="n">
-        <v>1607.372219670225</v>
+        <v>1821.848519013344</v>
       </c>
       <c r="O41" t="n">
-        <v>2078.640070960273</v>
+        <v>2166.443769775954</v>
       </c>
       <c r="P41" t="n">
-        <v>2309.156908749701</v>
+        <v>2396.960607565382</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.859555751524</v>
+        <v>2493.165078911115</v>
       </c>
       <c r="R41" t="n">
         <v>2568.859555751524</v>
@@ -7439,10 +7439,10 @@
         <v>2548.829993026035</v>
       </c>
       <c r="T41" t="n">
-        <v>2491.362196014849</v>
+        <v>2491.362196014848</v>
       </c>
       <c r="U41" t="n">
-        <v>2403.296050165197</v>
+        <v>2403.296050165196</v>
       </c>
       <c r="V41" t="n">
         <v>2233.134626949914</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.1753097645741</v>
+        <v>56.26969657134973</v>
       </c>
       <c r="C43" t="n">
-        <v>51.37719111503048</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="D43" t="n">
-        <v>51.37719111503048</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="E43" t="n">
-        <v>51.37719111503048</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="F43" t="n">
-        <v>53.47157792180617</v>
+        <v>53.47157792180614</v>
       </c>
       <c r="G43" t="n">
         <v>51.37719111503048</v>
@@ -7567,52 +7567,52 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J43" t="n">
-        <v>51.37719111503048</v>
+        <v>101.156885876138</v>
       </c>
       <c r="K43" t="n">
-        <v>85.83664770792434</v>
+        <v>135.6163424690318</v>
       </c>
       <c r="L43" t="n">
-        <v>187.538176775186</v>
+        <v>237.3178715362935</v>
       </c>
       <c r="M43" t="n">
-        <v>306.6856266234749</v>
+        <v>356.4653213845825</v>
       </c>
       <c r="N43" t="n">
-        <v>426.2344738912756</v>
+        <v>476.0141686523831</v>
       </c>
       <c r="O43" t="n">
-        <v>525.7386305632249</v>
+        <v>575.5183253243324</v>
       </c>
       <c r="P43" t="n">
-        <v>637.2827584551724</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="Q43" t="n">
-        <v>637.2827584551724</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="R43" t="n">
-        <v>637.2827584551724</v>
+        <v>639.3771452619478</v>
       </c>
       <c r="S43" t="n">
-        <v>590.5217418881703</v>
+        <v>592.6161286949457</v>
       </c>
       <c r="T43" t="n">
-        <v>524.192731776272</v>
+        <v>526.2871185830476</v>
       </c>
       <c r="U43" t="n">
-        <v>403.8207528415988</v>
+        <v>405.9151396483744</v>
       </c>
       <c r="V43" t="n">
-        <v>309.9032992887975</v>
+        <v>311.9976860955731</v>
       </c>
       <c r="W43" t="n">
-        <v>190.5647486949728</v>
+        <v>192.6591355017483</v>
       </c>
       <c r="X43" t="n">
-        <v>126.1301354791246</v>
+        <v>128.2245222859002</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.91282756017782</v>
+        <v>73.00721436695343</v>
       </c>
     </row>
     <row r="44">
@@ -7646,34 +7646,34 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J44" t="n">
-        <v>288.2667853808562</v>
+        <v>124.7686097247668</v>
       </c>
       <c r="K44" t="n">
         <v>530.4947149912743</v>
       </c>
       <c r="L44" t="n">
-        <v>917.7954629595091</v>
+        <v>1044.468063486948</v>
       </c>
       <c r="M44" t="n">
-        <v>1313.916280440622</v>
+        <v>1440.58888096806</v>
       </c>
       <c r="N44" t="n">
-        <v>1858.674094141995</v>
+        <v>1821.848519013344</v>
       </c>
       <c r="O44" t="n">
-        <v>2166.443769775954</v>
+        <v>2129.618194647303</v>
       </c>
       <c r="P44" t="n">
-        <v>2396.960607565382</v>
+        <v>2360.135032436731</v>
       </c>
       <c r="Q44" t="n">
-        <v>2493.165078911115</v>
+        <v>2568.859555751524</v>
       </c>
       <c r="R44" t="n">
         <v>2568.859555751524</v>
       </c>
       <c r="S44" t="n">
-        <v>2548.829993026036</v>
+        <v>2548.829993026035</v>
       </c>
       <c r="T44" t="n">
         <v>2491.362196014849</v>
@@ -7716,7 +7716,7 @@
         <v>348.0218923350906</v>
       </c>
       <c r="G45" t="n">
-        <v>219.3023513726286</v>
+        <v>219.3023513726297</v>
       </c>
       <c r="H45" t="n">
         <v>119.4510191359428</v>
@@ -7725,7 +7725,7 @@
         <v>51.37719111503048</v>
       </c>
       <c r="J45" t="n">
-        <v>112.4609240610681</v>
+        <v>112.4609240610683</v>
       </c>
       <c r="K45" t="n">
         <v>343.3693719355365</v>
@@ -7789,7 +7789,7 @@
         <v>51.37719111503048</v>
       </c>
       <c r="E46" t="n">
-        <v>53.47157792180617</v>
+        <v>51.37719111503048</v>
       </c>
       <c r="F46" t="n">
         <v>53.47157792180617</v>
@@ -7810,22 +7810,22 @@
         <v>85.83664770792434</v>
       </c>
       <c r="L46" t="n">
-        <v>187.538176775186</v>
+        <v>235.2234847295181</v>
       </c>
       <c r="M46" t="n">
-        <v>306.6856266234749</v>
+        <v>354.370934577807</v>
       </c>
       <c r="N46" t="n">
-        <v>426.2344738912756</v>
+        <v>473.9197818456076</v>
       </c>
       <c r="O46" t="n">
-        <v>525.7386305632249</v>
+        <v>573.423938517557</v>
       </c>
       <c r="P46" t="n">
-        <v>589.5974505008403</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="Q46" t="n">
-        <v>619.9998823217156</v>
+        <v>637.2827584551724</v>
       </c>
       <c r="R46" t="n">
         <v>637.2827584551724</v>
@@ -7979,7 +7979,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>316.0596115830937</v>
+        <v>316.059611583092</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -8058,16 +8058,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>192.5847891686445</v>
       </c>
       <c r="L3" t="n">
-        <v>193.1640535731266</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>595.8190745448364</v>
+        <v>595.819074544836</v>
       </c>
       <c r="N3" t="n">
-        <v>587.0503130509048</v>
+        <v>587.0503130509044</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8216,7 +8216,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>316.0596115830937</v>
+        <v>316.059611583092</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8298,13 +8298,13 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>193.1640535731266</v>
+        <v>193.1640535731256</v>
       </c>
       <c r="M6" t="n">
-        <v>595.8190745448364</v>
+        <v>595.819074544836</v>
       </c>
       <c r="N6" t="n">
-        <v>587.0503130509048</v>
+        <v>587.0503130509044</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8532,16 +8532,16 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>604.2880128282179</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>123.4844373467491</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>303.3708995205662</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>123.4844373467491</v>
+        <v>123.4844373467455</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>123.4844373467491</v>
+        <v>123.4844373467455</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>123.4844373467491</v>
+        <v>123.4844373467459</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>123.4844373467459</v>
       </c>
       <c r="K24" t="n">
-        <v>303.3708995205689</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -10191,7 +10191,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163515</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425306</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425308</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425317</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163524</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2496281599577</v>
+        <v>276.1862750714221</v>
       </c>
       <c r="E11" t="n">
-        <v>297.9284126413278</v>
+        <v>133.3886894192565</v>
       </c>
       <c r="F11" t="n">
-        <v>317.1002287293049</v>
+        <v>317.1002287293047</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>319.0169197254512</v>
       </c>
       <c r="H11" t="n">
-        <v>236.4138434148441</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>77.54049576322093</v>
+        <v>77.54049576322075</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.81036494390959</v>
+        <v>88.81036494390941</v>
       </c>
       <c r="C13" t="n">
-        <v>75.01035978931007</v>
+        <v>75.01035978930989</v>
       </c>
       <c r="D13" t="n">
-        <v>58.63172418688846</v>
+        <v>58.63172418688828</v>
       </c>
       <c r="E13" t="n">
-        <v>57.57947404266791</v>
+        <v>11.96827342787987</v>
       </c>
       <c r="F13" t="n">
-        <v>58.04639837085422</v>
+        <v>58.04639837085404</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>74.31366526496964</v>
       </c>
       <c r="H13" t="n">
-        <v>64.80335745095506</v>
+        <v>64.80335745095488</v>
       </c>
       <c r="I13" t="n">
-        <v>49.62794829532002</v>
+        <v>49.62794829531984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.70246465018518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>189.1870476125723</v>
       </c>
       <c r="E14" t="n">
-        <v>250.7016168390533</v>
+        <v>297.9284126413276</v>
       </c>
       <c r="F14" t="n">
-        <v>317.1002287293048</v>
+        <v>317.1002287293047</v>
       </c>
       <c r="G14" t="n">
-        <v>319.0169197254513</v>
+        <v>319.0169197254512</v>
       </c>
       <c r="H14" t="n">
-        <v>236.4138434148439</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.19916432912237</v>
+        <v>88.81036494390941</v>
       </c>
       <c r="C16" t="n">
-        <v>75.01035978930993</v>
+        <v>75.01035978930989</v>
       </c>
       <c r="D16" t="n">
-        <v>58.63172418688832</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>57.57947404266777</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.04639837085408</v>
+        <v>58.04639837085404</v>
       </c>
       <c r="G16" t="n">
-        <v>74.31366526496969</v>
+        <v>74.31366526496964</v>
       </c>
       <c r="H16" t="n">
-        <v>64.80335745095492</v>
+        <v>64.80335745095488</v>
       </c>
       <c r="I16" t="n">
-        <v>49.62794829531988</v>
+        <v>49.62794829531984</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>70.59999761476811</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160971.3638405248</v>
+        <v>160971.3638405246</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13968.41893580359</v>
+        <v>13968.41893580373</v>
       </c>
       <c r="E3" t="n">
-        <v>109498.6870316821</v>
+        <v>109498.687031682</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59905.73913112813</v>
+        <v>59905.73913112826</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>69213.04195975674</v>
+        <v>69213.04195975691</v>
       </c>
       <c r="M3" t="n">
-        <v>22084.35219766545</v>
+        <v>22084.35219766527</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40822.34374648845</v>
+        <v>40822.34374648849</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219216.276966949</v>
+        <v>219216.2769669491</v>
       </c>
       <c r="C4" t="n">
-        <v>219216.276966949</v>
+        <v>219216.2769669491</v>
       </c>
       <c r="D4" t="n">
-        <v>208183.1070948236</v>
+        <v>208183.1070948235</v>
       </c>
       <c r="E4" t="n">
-        <v>140959.0860285798</v>
+        <v>140959.0860285799</v>
       </c>
       <c r="F4" t="n">
         <v>140959.0860285799</v>
@@ -26436,16 +26436,16 @@
         <v>198390.5914932772</v>
       </c>
       <c r="I4" t="n">
-        <v>198390.5914932772</v>
+        <v>198390.5914932773</v>
       </c>
       <c r="J4" t="n">
         <v>198353.379977676</v>
       </c>
       <c r="K4" t="n">
-        <v>198353.379977676</v>
+        <v>198353.3799776761</v>
       </c>
       <c r="L4" t="n">
-        <v>198112.5265492106</v>
+        <v>198112.5265492105</v>
       </c>
       <c r="M4" t="n">
         <v>197569.3581676765</v>
@@ -26454,7 +26454,7 @@
         <v>197569.3581676765</v>
       </c>
       <c r="O4" t="n">
-        <v>197569.3581676766</v>
+        <v>197569.3581676765</v>
       </c>
       <c r="P4" t="n">
         <v>197569.3581676765</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62831.97845657835</v>
+        <v>62831.97845657832</v>
       </c>
       <c r="C5" t="n">
-        <v>62831.97845657835</v>
+        <v>62831.97845657832</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46326.49540297886</v>
+        <v>46326.49540297881</v>
       </c>
       <c r="F5" t="n">
-        <v>46326.49540297887</v>
+        <v>46326.49540297881</v>
       </c>
       <c r="G5" t="n">
-        <v>52621.76488174738</v>
+        <v>52621.76488174735</v>
       </c>
       <c r="H5" t="n">
-        <v>52621.76488174738</v>
+        <v>52621.76488174735</v>
       </c>
       <c r="I5" t="n">
-        <v>52621.76488174737</v>
+        <v>52621.76488174735</v>
       </c>
       <c r="J5" t="n">
         <v>58943.11413656328</v>
@@ -26497,13 +26497,13 @@
         <v>58943.11413656328</v>
       </c>
       <c r="L5" t="n">
-        <v>57187.12750810519</v>
+        <v>57187.12750810516</v>
       </c>
       <c r="M5" t="n">
-        <v>53020.52544612266</v>
+        <v>53020.52544612265</v>
       </c>
       <c r="N5" t="n">
-        <v>53020.52544612266</v>
+        <v>53020.52544612265</v>
       </c>
       <c r="O5" t="n">
         <v>53020.52544612266</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-443019.6192640521</v>
+        <v>-443019.619264052</v>
       </c>
       <c r="C6" t="n">
         <v>-282048.2554235274</v>
       </c>
       <c r="D6" t="n">
-        <v>-287717.5606675385</v>
+        <v>-287717.5606675387</v>
       </c>
       <c r="E6" t="n">
-        <v>-296784.2684632408</v>
+        <v>-297036.6644778776</v>
       </c>
       <c r="F6" t="n">
-        <v>-187285.5814315589</v>
+        <v>-187537.9774461955</v>
       </c>
       <c r="G6" t="n">
-        <v>-310918.0955061527</v>
+        <v>-310918.0955061528</v>
       </c>
       <c r="H6" t="n">
         <v>-251012.3563750246</v>
       </c>
       <c r="I6" t="n">
-        <v>-251012.3563750245</v>
+        <v>-251012.3563750246</v>
       </c>
       <c r="J6" t="n">
         <v>-466150.5102619907</v>
       </c>
       <c r="K6" t="n">
-        <v>-257296.4941142393</v>
+        <v>-257296.4941142394</v>
       </c>
       <c r="L6" t="n">
-        <v>-324512.6960170725</v>
+        <v>-324512.6960170727</v>
       </c>
       <c r="M6" t="n">
-        <v>-272674.2358114647</v>
+        <v>-272674.2358114644</v>
       </c>
       <c r="N6" t="n">
         <v>-250589.8836137992</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="F2" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="G2" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H2" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I2" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J2" t="n">
         <v>125.9101035970209</v>
       </c>
       <c r="K2" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="L2" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="M2" t="n">
         <v>165.1496723798883</v>
@@ -26722,7 +26722,7 @@
         <v>165.1496723798883</v>
       </c>
       <c r="O2" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="P2" t="n">
         <v>165.1496723798883</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="C4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629248</v>
       </c>
       <c r="F4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629248</v>
       </c>
       <c r="G4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629248</v>
       </c>
       <c r="H4" t="n">
-        <v>632.0032640629257</v>
+        <v>632.0032640629249</v>
       </c>
       <c r="I4" t="n">
-        <v>632.0032640629255</v>
+        <v>632.0032640629249</v>
       </c>
       <c r="J4" t="n">
-        <v>793.8829810176099</v>
+        <v>793.8829810176097</v>
       </c>
       <c r="K4" t="n">
-        <v>793.8829810176101</v>
+        <v>793.8829810176097</v>
       </c>
       <c r="L4" t="n">
-        <v>748.9149517358163</v>
+        <v>748.9149517358155</v>
       </c>
       <c r="M4" t="n">
         <v>642.214888937881</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.88217391391017</v>
+        <v>74.88217391391032</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.02792968311056</v>
+        <v>51.02792968311057</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>86.51630244969593</v>
+        <v>86.51630244969614</v>
       </c>
       <c r="M2" t="n">
-        <v>27.60544024708182</v>
+        <v>27.60544024708159</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.02792968311056</v>
+        <v>51.02792968311061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.96802928179375</v>
+        <v>44.9680292817942</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7000627979354</v>
+        <v>106.7000627979345</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>642.214888937881</v>
+        <v>642.2148889378809</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.88217391391017</v>
+        <v>74.88217391391032</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.02792968311056</v>
+        <v>51.02792968311057</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>44.96802928179375</v>
+        <v>44.9680292817942</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7000627979354</v>
+        <v>106.7000627979345</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>134.3324246345527</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>385.8609626256514</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>69.0427664828937</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>74.7762653283342</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>155.3231581697161</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>200.8626675760768</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9080460484219</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>23.64886207900582</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>31.8537810815161</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>143.0626833010351</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>201.886167224093</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>110.101849583264</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>327.9070365718485</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>141.5252450056346</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>106.4411796807436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>77.01947232901793</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28059,19 +28059,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>198.976013297129</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>226.2568010418127</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="C11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="D11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="E11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="F11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="G11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="H11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="I11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="J11" t="n">
-        <v>27.66540891075149</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>92.90945005362643</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>92.90945005362643</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>27.66540891074629</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="R11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="S11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="T11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="U11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="V11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="W11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="X11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
     </row>
     <row r="12">
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.62927381472548</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>39.629273814729</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="C13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="D13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="E13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="F13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="G13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="H13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="I13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="J13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="K13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="L13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="M13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="N13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="O13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="P13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="R13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="S13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="T13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="U13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="V13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="W13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="X13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.90945005362643</v>
+        <v>92.90945005362661</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="C14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="D14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="E14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="F14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="G14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="H14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="I14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="L14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="M14" t="n">
-        <v>92.90945005362657</v>
+        <v>31.88425410004885</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="O14" t="n">
-        <v>31.88425410005271</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="P14" t="n">
-        <v>92.90945005362657</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.90945005362657</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>88.69060486432404</v>
       </c>
       <c r="S14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="T14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="U14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="V14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="W14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="X14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
     </row>
     <row r="15">
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>39.62927381472902</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.62927381472548</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="C16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="D16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="E16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="F16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="G16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="H16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="I16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="J16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="K16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="L16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="M16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="N16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="O16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="P16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="R16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="S16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="T16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="U16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="V16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="W16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="X16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.90945005362657</v>
+        <v>92.90945005362661</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="F17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28591,46 +28591,46 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>167.7916239675367</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>67.93880637948547</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>167.7916239675367</v>
+        <v>156.6294112438055</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="R17" t="n">
-        <v>88.69060486432404</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="S17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>39.62927381472548</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>39.629273814729</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.807230346673478</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.43595137397247</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R19" t="n">
-        <v>147.692221740033</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>67.9388063794855</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>167.7916239675367</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>67.93880637948189</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="R20" t="n">
         <v>88.69060486432404</v>
       </c>
       <c r="S20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>39.62927381472554</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>39.62927381472856</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28983,7 +28983,7 @@
         <v>58.93095321465074</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.807230346673528</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>23.90663257417934</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>37.52931879979314</v>
       </c>
       <c r="R22" t="n">
-        <v>147.692221740033</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="S22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="E23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="F23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="G23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="H23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="I23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29065,46 +29065,46 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>67.93880637948223</v>
       </c>
       <c r="O23" t="n">
-        <v>156.6294112438087</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.7916239675367</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>167.7916239675367</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="24">
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>39.62927381472635</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>39.62927381472858</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="C25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>23.90663257417738</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.43595137397236</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R25" t="n">
         <v>147.692221740033</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="T25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="V25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="W25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="X25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.7916239675367</v>
+        <v>167.7916239675369</v>
       </c>
     </row>
     <row r="26">
@@ -29314,7 +29314,7 @@
         <v>125.9101035970209</v>
       </c>
       <c r="P26" t="n">
-        <v>125.9101035970209</v>
+        <v>125.9101035970202</v>
       </c>
       <c r="Q26" t="n">
         <v>125.9101035970209</v>
@@ -29454,13 +29454,13 @@
         <v>125.9101035970209</v>
       </c>
       <c r="J28" t="n">
-        <v>58.93095321465074</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="K28" t="n">
-        <v>95.42635269170101</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>65.97652110912362</v>
       </c>
       <c r="M28" t="n">
         <v>125.9101035970209</v>
@@ -29469,13 +29469,13 @@
         <v>125.9101035970209</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9101035970209</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>125.9101035970209</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.52931879979314</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="R28" t="n">
         <v>125.9101035970209</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="C29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="D29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="E29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="F29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="G29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="H29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="I29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="J29" t="n">
-        <v>125.9101035970231</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="K29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="L29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="M29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="N29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="O29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="P29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="R29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="S29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="T29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="U29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="V29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="W29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="X29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="Y29" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="C31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="D31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="E31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="F31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="G31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="H31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="I31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="J31" t="n">
-        <v>58.93095321465074</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="L31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="M31" t="n">
-        <v>125.9101035970208</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="P31" t="n">
-        <v>7.045567894475994</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.9101035970208</v>
+        <v>65.97652110912354</v>
       </c>
       <c r="R31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="S31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="T31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="U31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="V31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="W31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="X31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.9101035970208</v>
+        <v>125.9101035970209</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="C32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="D32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="E32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="F32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="G32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="I32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="M32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="N32" t="n">
-        <v>137.5442321328065</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>137.5442321328065</v>
+        <v>41.17970765683771</v>
       </c>
       <c r="P32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="Q32" t="n">
-        <v>129.8703125211663</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="R32" t="n">
-        <v>137.5442321328065</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="T32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="U32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="V32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="W32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="X32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="Y32" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="C34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="D34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="E34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="F34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="G34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="I34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="J34" t="n">
         <v>58.93095321465074</v>
       </c>
       <c r="K34" t="n">
-        <v>137.5442321328065</v>
+        <v>134.0527272886395</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="M34" t="n">
-        <v>34.03781395562982</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.5442321328065</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5442321328065</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="S34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="T34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="U34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="V34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="W34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="X34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.5442321328065</v>
+        <v>137.5442321328067</v>
       </c>
     </row>
     <row r="35">
@@ -30007,10 +30007,10 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>113.6566181505647</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>165.1496723798883</v>
       </c>
       <c r="P35" t="n">
-        <v>113.656618150565</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>88.69060486432404</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>152.6044663253607</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>50.28251996071491</v>
+        <v>48.16697773164903</v>
       </c>
       <c r="Q37" t="n">
         <v>37.52931879979314</v>
@@ -30247,28 +30247,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>113.6566181505652</v>
       </c>
       <c r="M38" t="n">
-        <v>37.19755063500071</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="O38" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>165.1496723798883</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S38" t="n">
         <v>165.1496723798883</v>
@@ -30387,10 +30387,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>152.6044663253607</v>
       </c>
       <c r="F40" t="n">
-        <v>153.071390653547</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>165.1496723798883</v>
@@ -30399,7 +30399,7 @@
         <v>157.7128075045815</v>
       </c>
       <c r="I40" t="n">
-        <v>142.5373983489465</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="J40" t="n">
         <v>58.93095321465074</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.23884589158641</v>
+        <v>63.08402250050025</v>
       </c>
       <c r="R40" t="n">
-        <v>165.1496723798883</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S40" t="n">
         <v>165.1496723798883</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="E41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="F41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="G41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="I41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,46 +30487,46 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="M41" t="n">
-        <v>113.6566181505651</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="O41" t="n">
-        <v>165.1496723798883</v>
+        <v>37.19755063500048</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>88.69060486432404</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="S41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="C43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>153.071390653547</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="H43" t="n">
         <v>157.7128075045815</v>
@@ -30639,7 +30639,7 @@
         <v>142.5373983489465</v>
       </c>
       <c r="J43" t="n">
-        <v>58.93095321465074</v>
+        <v>109.2134731753654</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>48.16697773164857</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>37.52931879979314</v>
@@ -30666,25 +30666,25 @@
         <v>147.692221740033</v>
       </c>
       <c r="S43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="T43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="U43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="V43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="W43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="X43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.1496723798883</v>
+        <v>165.1496723798884</v>
       </c>
     </row>
     <row r="44">
@@ -30718,19 +30718,19 @@
         <v>165.1496723798883</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>165.1496723798883</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>37.19755063500082</v>
+        <v>165.1496723798883</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>165.1496723798883</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,10 +30739,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>113.6566181505651</v>
       </c>
       <c r="R44" t="n">
-        <v>165.1496723798883</v>
+        <v>88.69060486432404</v>
       </c>
       <c r="S44" t="n">
         <v>165.1496723798883</v>
@@ -30788,10 +30788,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>-1.06581410364015e-12</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30861,10 +30861,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>152.6044663253607</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>153.071390653547</v>
       </c>
       <c r="G46" t="n">
         <v>165.1496723798883</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>48.16697773164857</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.23884589158641</v>
+        <v>37.52931879979314</v>
       </c>
       <c r="R46" t="n">
-        <v>165.1496723798883</v>
+        <v>147.692221740033</v>
       </c>
       <c r="S46" t="n">
         <v>165.1496723798883</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>137.236607609047</v>
+        <v>137.2366076090452</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80.58862000197786</v>
       </c>
       <c r="L3" t="n">
-        <v>80.5886200019788</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="N3" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>137.236607609047</v>
+        <v>137.2366076090452</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>80.5886200019788</v>
+        <v>80.58862000197786</v>
       </c>
       <c r="M6" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="N6" t="n">
-        <v>480.3351719831966</v>
+        <v>480.3351719831961</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>497.5728717605097</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.7981549811922</v>
+        <v>167.0421961240673</v>
       </c>
       <c r="K11" t="n">
         <v>244.6746763741597</v>
       </c>
       <c r="L11" t="n">
-        <v>446.9247761542163</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M11" t="n">
-        <v>493.0314879133363</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N11" t="n">
-        <v>478.0201955539129</v>
+        <v>478.0201955539131</v>
       </c>
       <c r="O11" t="n">
-        <v>310.8784602363221</v>
+        <v>338.5438691470684</v>
       </c>
       <c r="P11" t="n">
-        <v>232.8452906963923</v>
+        <v>325.7547407500189</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.0856837361854</v>
+        <v>190.0856837361856</v>
       </c>
       <c r="R11" t="n">
-        <v>4.218845189302385</v>
+        <v>4.21884518930257</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>21.26683175375048</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K12" t="n">
-        <v>233.2408564388568</v>
+        <v>192.8069478430708</v>
       </c>
       <c r="L12" t="n">
         <v>371.4428084841559</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.97849683897569</v>
+        <v>33.97849683897587</v>
       </c>
       <c r="K13" t="n">
-        <v>127.7169819656404</v>
+        <v>127.7169819656406</v>
       </c>
       <c r="L13" t="n">
-        <v>195.6382672932847</v>
+        <v>195.6382672932849</v>
       </c>
       <c r="M13" t="n">
-        <v>213.2604094963425</v>
+        <v>213.2604094963427</v>
       </c>
       <c r="N13" t="n">
-        <v>213.6658614352432</v>
+        <v>213.6658614352434</v>
       </c>
       <c r="O13" t="n">
-        <v>193.4186992172116</v>
+        <v>193.4186992172118</v>
       </c>
       <c r="P13" t="n">
-        <v>157.4133085764703</v>
+        <v>157.4133085764705</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.38013125383329</v>
+        <v>55.38013125383348</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>74.13274607044072</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6746763741597</v>
+        <v>337.5841264277863</v>
       </c>
       <c r="L14" t="n">
         <v>446.9247761542164</v>
       </c>
       <c r="M14" t="n">
-        <v>493.0314879133365</v>
+        <v>432.0062919597588</v>
       </c>
       <c r="N14" t="n">
-        <v>385.1107455002865</v>
+        <v>478.0201955539131</v>
       </c>
       <c r="O14" t="n">
-        <v>342.7627143363748</v>
+        <v>403.7879102899487</v>
       </c>
       <c r="P14" t="n">
-        <v>325.7547407500189</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q14" t="n">
-        <v>190.0856837361856</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>21.26683175375048</v>
+        <v>21.26683175374687</v>
       </c>
       <c r="K15" t="n">
         <v>233.2408564388568</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.97849683897583</v>
+        <v>33.97849683897587</v>
       </c>
       <c r="K16" t="n">
         <v>127.7169819656406</v>
       </c>
       <c r="L16" t="n">
-        <v>195.6382672932848</v>
+        <v>195.6382672932849</v>
       </c>
       <c r="M16" t="n">
         <v>213.2604094963427</v>
@@ -35817,13 +35817,13 @@
         <v>213.6658614352434</v>
       </c>
       <c r="O16" t="n">
-        <v>193.4186992172117</v>
+        <v>193.4186992172118</v>
       </c>
       <c r="P16" t="n">
-        <v>157.4133085764704</v>
+        <v>157.4133085764705</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.38013125383343</v>
+        <v>55.38013125383348</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L17" t="n">
-        <v>521.8069500681266</v>
+        <v>354.0153261005898</v>
       </c>
       <c r="M17" t="n">
-        <v>468.0608442391954</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N17" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O17" t="n">
-        <v>478.6700842038588</v>
+        <v>467.5078714801276</v>
       </c>
       <c r="P17" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.17623368255899</v>
+        <v>264.9678576500959</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>79.10101910321289</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>21.26683175375048</v>
+        <v>21.26683175374687</v>
       </c>
       <c r="K18" t="n">
         <v>233.2408564388568</v>
@@ -36057,13 +36057,13 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P19" t="n">
-        <v>64.50385852284384</v>
+        <v>68.31108886951732</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.90663257417933</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>20.09940222750393</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>74.13274607044072</v>
       </c>
       <c r="K20" t="n">
-        <v>312.6134827536452</v>
+        <v>244.6746763741597</v>
       </c>
       <c r="L20" t="n">
         <v>354.0153261005898</v>
       </c>
       <c r="M20" t="n">
-        <v>567.9136618272466</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N20" t="n">
         <v>385.1107455002865</v>
       </c>
       <c r="O20" t="n">
-        <v>478.6700842038588</v>
+        <v>478.670084203859</v>
       </c>
       <c r="P20" t="n">
-        <v>232.8452906963923</v>
+        <v>300.7840970758742</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.17623368255899</v>
+        <v>264.9678576500959</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>21.26683175375048</v>
+        <v>21.26683175374733</v>
       </c>
       <c r="K21" t="n">
         <v>233.2408564388568</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.807531912014</v>
+        <v>38.61476225868753</v>
       </c>
       <c r="L22" t="n">
         <v>102.7288172396583</v>
@@ -36294,13 +36294,13 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P22" t="n">
-        <v>88.41049109702318</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.09940222750393</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L23" t="n">
-        <v>354.0153261005898</v>
+        <v>521.8069500681269</v>
       </c>
       <c r="M23" t="n">
         <v>400.1220378597099</v>
       </c>
       <c r="N23" t="n">
-        <v>385.1107455002865</v>
+        <v>453.0495518797687</v>
       </c>
       <c r="O23" t="n">
-        <v>467.5078714801308</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P23" t="n">
-        <v>232.8452906963923</v>
+        <v>400.6369146639292</v>
       </c>
       <c r="Q23" t="n">
-        <v>264.9678576500957</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R23" t="n">
-        <v>79.10101910321269</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.70074034953289</v>
+        <v>21.26683175374733</v>
       </c>
       <c r="K24" t="n">
-        <v>192.8069478430735</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L24" t="n">
         <v>371.4428084841559</v>
@@ -36531,10 +36531,10 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P25" t="n">
-        <v>64.50385852284384</v>
+        <v>88.41049109702122</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.90663257417922</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>370.5847799711806</v>
       </c>
       <c r="L26" t="n">
-        <v>479.9254296976107</v>
+        <v>479.9254296976108</v>
       </c>
       <c r="M26" t="n">
         <v>526.0321414567308</v>
       </c>
       <c r="N26" t="n">
-        <v>511.0208490973073</v>
+        <v>511.0208490973074</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7885638333429</v>
+        <v>436.788563833343</v>
       </c>
       <c r="P26" t="n">
-        <v>358.7553942934131</v>
+        <v>358.7553942934125</v>
       </c>
       <c r="Q26" t="n">
-        <v>223.0863372795798</v>
+        <v>223.0863372795799</v>
       </c>
       <c r="R26" t="n">
-        <v>37.21949873269682</v>
+        <v>37.21949873269685</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>66.97915038237015</v>
       </c>
       <c r="K28" t="n">
-        <v>130.233884603715</v>
+        <v>34.807531912014</v>
       </c>
       <c r="L28" t="n">
-        <v>102.7288172396583</v>
+        <v>168.7053383487819</v>
       </c>
       <c r="M28" t="n">
-        <v>246.2610630397369</v>
+        <v>246.261063039737</v>
       </c>
       <c r="N28" t="n">
         <v>246.6665149786377</v>
       </c>
       <c r="O28" t="n">
-        <v>226.419352760606</v>
+        <v>100.5092491635852</v>
       </c>
       <c r="P28" t="n">
         <v>190.4139621198647</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>88.38078479722775</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>200.0428496674638</v>
+        <v>200.0428496674616</v>
       </c>
       <c r="K29" t="n">
-        <v>370.5847799711805</v>
+        <v>370.5847799711806</v>
       </c>
       <c r="L29" t="n">
-        <v>479.9254296976106</v>
+        <v>479.9254296976108</v>
       </c>
       <c r="M29" t="n">
-        <v>526.0321414567306</v>
+        <v>526.0321414567308</v>
       </c>
       <c r="N29" t="n">
-        <v>511.0208490973072</v>
+        <v>511.0208490973074</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7885638333428</v>
+        <v>436.788563833343</v>
       </c>
       <c r="P29" t="n">
-        <v>358.755394293413</v>
+        <v>358.7553942934132</v>
       </c>
       <c r="Q29" t="n">
-        <v>223.0863372795797</v>
+        <v>223.0863372795799</v>
       </c>
       <c r="R29" t="n">
-        <v>37.21949873269671</v>
+        <v>37.21949873269685</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>61.70074034953289</v>
       </c>
       <c r="K30" t="n">
-        <v>233.2408564388568</v>
+        <v>233.2408564388561</v>
       </c>
       <c r="L30" t="n">
         <v>371.4428084841559</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>66.97915038237015</v>
       </c>
       <c r="K31" t="n">
-        <v>34.807531912014</v>
+        <v>160.7176355090349</v>
       </c>
       <c r="L31" t="n">
-        <v>228.638920836679</v>
+        <v>228.6389208366791</v>
       </c>
       <c r="M31" t="n">
-        <v>246.2610630397368</v>
+        <v>120.3509594427161</v>
       </c>
       <c r="N31" t="n">
-        <v>246.6665149786376</v>
+        <v>246.6665149786377</v>
       </c>
       <c r="O31" t="n">
-        <v>226.4193527606059</v>
+        <v>226.419352760606</v>
       </c>
       <c r="P31" t="n">
-        <v>71.54942641731984</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.38078479722761</v>
+        <v>28.4472023093304</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>211.6769782032472</v>
+        <v>211.6769782032474</v>
       </c>
       <c r="K32" t="n">
-        <v>244.6746763741597</v>
+        <v>382.2189085069664</v>
       </c>
       <c r="L32" t="n">
-        <v>354.0153261005898</v>
+        <v>491.5595582333966</v>
       </c>
       <c r="M32" t="n">
-        <v>537.6662699925164</v>
+        <v>537.6662699925166</v>
       </c>
       <c r="N32" t="n">
-        <v>522.6549776330929</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O32" t="n">
-        <v>448.4226923691286</v>
+        <v>352.0581678931598</v>
       </c>
       <c r="P32" t="n">
-        <v>370.3895228291988</v>
+        <v>370.389522829199</v>
       </c>
       <c r="Q32" t="n">
-        <v>227.0465462037253</v>
+        <v>234.7204658153657</v>
       </c>
       <c r="R32" t="n">
-        <v>48.85362726848247</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>61.70074034953196</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K33" t="n">
         <v>233.2408564388568</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>172.3517640448205</v>
+        <v>168.8602592006535</v>
       </c>
       <c r="L34" t="n">
-        <v>102.7288172396583</v>
+        <v>240.273049372465</v>
       </c>
       <c r="M34" t="n">
-        <v>154.3887733983459</v>
+        <v>257.8951915755228</v>
       </c>
       <c r="N34" t="n">
         <v>120.7564113816168</v>
@@ -37242,10 +37242,10 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P34" t="n">
-        <v>202.0480906556504</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q34" t="n">
-        <v>100.0149133330134</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>74.13274607044072</v>
+        <v>187.7893642210055</v>
       </c>
       <c r="K35" t="n">
-        <v>244.6746763741597</v>
+        <v>409.824348754048</v>
       </c>
       <c r="L35" t="n">
         <v>354.0153261005898</v>
@@ -37321,10 +37321,10 @@
         <v>476.0281326162104</v>
       </c>
       <c r="P35" t="n">
-        <v>346.5019088469572</v>
+        <v>232.8452906963923</v>
       </c>
       <c r="Q35" t="n">
-        <v>262.3259060624473</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>61.70074034953218</v>
+        <v>61.70074034953289</v>
       </c>
       <c r="K36" t="n">
         <v>233.2408564388568</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.115542229066381</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P37" t="n">
-        <v>114.7863784835587</v>
+        <v>112.6708362544929</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>74.13274607044072</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6746763741597</v>
+        <v>409.824348754048</v>
       </c>
       <c r="L38" t="n">
-        <v>354.0153261005898</v>
+        <v>467.671944251155</v>
       </c>
       <c r="M38" t="n">
-        <v>437.3195884947106</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N38" t="n">
-        <v>385.1107455002865</v>
+        <v>550.2604178801747</v>
       </c>
       <c r="O38" t="n">
-        <v>476.0281326162104</v>
+        <v>310.8784602363221</v>
       </c>
       <c r="P38" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q38" t="n">
-        <v>262.3259060624473</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R38" t="n">
-        <v>76.45906751556429</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.115542229066381</v>
       </c>
       <c r="F40" t="n">
-        <v>2.115542229066352</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>22.61227403094185</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>64.50385852284384</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.70952709179327</v>
+        <v>25.55470370070712</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45745063985532</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>244.6746763741597</v>
       </c>
       <c r="L41" t="n">
-        <v>354.0153261005898</v>
+        <v>519.1649984804783</v>
       </c>
       <c r="M41" t="n">
-        <v>513.778656010275</v>
+        <v>400.1220378597099</v>
       </c>
       <c r="N41" t="n">
-        <v>385.1107455002865</v>
+        <v>550.2604178801748</v>
       </c>
       <c r="O41" t="n">
-        <v>476.0281326162104</v>
+        <v>348.0760108713226</v>
       </c>
       <c r="P41" t="n">
         <v>232.8452906963923</v>
       </c>
       <c r="Q41" t="n">
-        <v>262.3259060624473</v>
+        <v>97.17623368255899</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.45906751556431</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.115542229066352</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>50.28251996071465</v>
       </c>
       <c r="K43" t="n">
         <v>34.807531912014</v>
@@ -37953,7 +37953,7 @@
         <v>100.5092491635852</v>
       </c>
       <c r="P43" t="n">
-        <v>112.6708362544924</v>
+        <v>64.50385852284384</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>239.282418450329</v>
+        <v>74.13274607044072</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6746763741597</v>
+        <v>409.824348754048</v>
       </c>
       <c r="L44" t="n">
-        <v>391.2128767355907</v>
+        <v>519.1649984804782</v>
       </c>
       <c r="M44" t="n">
         <v>400.1220378597099</v>
       </c>
       <c r="N44" t="n">
-        <v>550.2604178801748</v>
+        <v>385.1107455002865</v>
       </c>
       <c r="O44" t="n">
         <v>310.8784602363221</v>
@@ -38035,10 +38035,10 @@
         <v>232.8452906963923</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.17623368255899</v>
+        <v>210.832851833124</v>
       </c>
       <c r="R44" t="n">
-        <v>76.45906751556429</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>61.70074034953289</v>
+        <v>61.7007403495331</v>
       </c>
       <c r="K45" t="n">
-        <v>233.240856438857</v>
+        <v>233.2408564388568</v>
       </c>
       <c r="L45" t="n">
         <v>371.4428084841559</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>2.115542229066352</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>34.807531912014</v>
       </c>
       <c r="L46" t="n">
-        <v>102.7288172396583</v>
+        <v>150.8957949713068</v>
       </c>
       <c r="M46" t="n">
         <v>120.3509594427161</v>
@@ -38193,10 +38193,10 @@
         <v>64.50385852284384</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.70952709179327</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45745063985532</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
